--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45884.39982638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45562</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45783.39288194444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45447</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>46038</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45561.72197916666</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45747</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44868</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45937.5946412037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45987.35112268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44826</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>45586</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>45594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45579.49459490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45784.52596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44715</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45819.37813657407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>45784</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44867</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45406.44877314815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45019</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45874.46988425926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45562.50009259259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44645</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44785.31300925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44670.33049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45807.47395833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45734</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44321.91877314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45610.51162037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44914.92446759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>45664.51217592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44861</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45676.48310185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>45195</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45523.49939814815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44925</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44593.65526620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45826.41837962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45019</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45695</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45684.45954861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>46027.41774305556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45965.34184027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>46027.43534722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45594.70607638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45827.34200231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45930.46909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45840.61583333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45840.63028935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>45873.64189814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45356</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45993.6286574074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45581.45096064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>45523.60684027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45043</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44619</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>45562.50609953704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44406</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>44406</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44406</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>44406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44859.59534722222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44862</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44715</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45104</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44904</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45275</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>45099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45755.64905092592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45558</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45576</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45211.33486111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45824.60902777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45019</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44305</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45908</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45939.36646990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45847</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45723.33811342593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45874.43534722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45558.34784722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>45176</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44305</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>45579</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>46030.49030092593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44772</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>46048.72559027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>46006.47403935185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45993.70097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45567.41245370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45579.495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44631</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45251</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45404</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45569.38002314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44837</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45624</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44817.5884375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44410</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44587</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44824.91319444445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44784.31969907408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44406</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44406</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44406</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44406</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44652.92739583334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44314</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44406</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44361</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44361</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44320</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44410</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44777.60917824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44470.62471064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44456</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44772.67398148148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44841.65748842592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44406</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44406</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44846</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44410</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44406</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44865</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44606.62075231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44729</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>44816.46444444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44410</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44406</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44854.43480324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44687</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44524</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>44742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>44841</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>44860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44813</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44341</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44354</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44249</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44715</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44859.60186342592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>44599</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44410</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44410</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44872</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>44355</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>44609</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>44410</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44851</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>44631</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44410</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44406</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44406</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44406</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44670.33633101852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44410</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44410</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44619.72355324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44321</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44463</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44566</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44599.93688657408</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44830</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44343</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44433</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44588.39104166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44839.46023148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44840</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44376</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44606</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44848</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44350</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44410</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44642.92290509259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44838</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44385</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44606</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44475.92033564814</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44495</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44631</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44533</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44581.48346064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>45418</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44840</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45501.40922453703</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45531.74990740741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44944</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44944.4013425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45470</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45630.3946875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45609.38349537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>45685.60450231482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45524</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45670.4403587963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>45567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45484.92328703704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45252</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45211</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45720.64917824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45681.82818287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45681.83350694444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>44818.57295138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45572</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45572.49082175926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45572.47104166666</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44419.57832175926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45698.62097222222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44610.92238425926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45428</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>45012.50180555556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>45677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44644.47650462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>45068.92700231481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44904</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44456.59263888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45392</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44631.33300925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44606.933125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45749.43325231481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45247.47055555556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45545.41424768518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45573.42783564814</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>45345</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45345</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45733.59627314815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45469.73981481481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>44446.91958333334</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45769.52287037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>45301</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>45769.425625</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44294</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45401</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45691.50020833333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45709.66362268518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45309</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45447.67429398148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45022</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44287.61318287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44902.57146990741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45028</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45522.81311342592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44984</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45761</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44488.6871875</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45475</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44467</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45884.62400462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45604.40876157407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45798</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45243.34</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45749</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45799</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45677.49140046296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45798.44232638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45544</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45775</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45756.67292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44931.3587962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45722.37076388889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44592.40050925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45343</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45771.68980324074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45804.44883101852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44734</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45222.41521990741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45805.65432870371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45580.70097222222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44679</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45887.58591435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45805.47530092593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45455.52168981481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45740.66287037037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44749.9266087963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45019</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>45447.46972222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44382</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45811.39753472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>45889.58655092592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45702.46836805555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>45702.47341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45645.66707175926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45666.47462962963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45698.36478009259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45237</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45176</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45812.46246527778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45890.43826388889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45891.53517361111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45891.56422453704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>45813.646875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>45812.34858796297</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>45812.34997685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>45813.65648148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45561.65799768519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44980</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45623</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45698.34443287037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45769.44732638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45826.43984953704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45827.36939814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44574.65519675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45894.39484953704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45894.39736111111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45894.60689814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>45838.47287037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45897.6433912037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45110.63961805555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45110.70980324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45897.63927083334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45897.36565972222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45471</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44299</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45897.6609837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44840</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45898</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28345,7 +28345,7 @@
         <v>44483</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45898.53366898148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45901.62168981481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45439</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45785.58716435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>44917</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45901</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45821.56319444445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45902</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45747.40657407408</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>45729.40373842593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45820.55613425926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45756.67138888889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45820.55162037037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45803.66111111111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44313</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45183</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45572.49059027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45673.51619212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45820.55875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45484</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>45824.48300925926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45120.92650462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45070</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>45825.38503472223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45840.42099537037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45541.53135416667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45604</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45904.44513888889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45905.71921296296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>45834.55314814814</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45904.48623842592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45904.49043981481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45825.29293981481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44314</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45825.55847222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45908.60465277778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45824.43114583333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>45909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45909</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45909.49864583334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45909.66037037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45824.31930555555</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         <v>44740</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45825.63641203703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45824.54091435186</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45824.48680555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45824.50795138889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45826.42918981481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31431,7 +31431,7 @@
         <v>45827.43445601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31488,7 +31488,7 @@
         <v>45576.48241898148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>45912.63535879629</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31612,7 +31612,7 @@
         <v>45912.6982175926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31669,7 +31669,7 @@
         <v>44606.93429398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45915.54059027778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>44825</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45915.59853009259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>45915.55290509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45912</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45912.39591435185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45912.40680555555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>45488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45912.53976851852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44847</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>45646.64148148148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45917.65262731481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45916.66503472222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45917.64240740741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45552</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45635.31018518518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45917.68104166666</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44355</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45916.54780092592</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>45919.53916666667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45041.61890046296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45831.65424768518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45371</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45559.49118055555</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44619.71880787037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>45918.42427083333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>44606.61752314815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45831.48987268518</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45432.48533564815</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45833.72009259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>45923.5107175926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45923.65701388889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>45923.35769675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>45832.86366898148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33781,7 +33781,7 @@
         <v>45202</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33838,7 +33838,7 @@
         <v>45923.35368055556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44620.92203703704</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>45923.53181712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>45922.55172453704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>45832.64778935185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>45924.48327546296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45091</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45091</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>44515.55709490741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>44774</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45832.44204861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>44908.65792824074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45924.4768287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45925.57604166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45832.54769675926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45834.6284375</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45055</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45470.93101851852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45446</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45929.32023148148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45566</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44330</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45926.54784722222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45679.35350694445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45926.39637731481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45929.54004629629</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45835.49601851852</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>45356</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45356.4062962963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         <v>45926.39612268518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         <v>45929.46907407408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35697,7 +35697,7 @@
         <v>45929.48913194444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35754,7 +35754,7 @@
         <v>45348.62467592592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>45147</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>45462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>45723.51538194445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>45930.30091435185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>45930.32789351852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>45646.65800925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>45930.62444444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36215,7 +36215,7 @@
         <v>45481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>45932.64318287037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45933.57060185185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>45932.4290625</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         <v>45103</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45694</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>45838.48564814815</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44983</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>44511</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>45932.6515625</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45840.6047800926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>45933.56834490741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>45540.37623842592</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37018,7 +37018,7 @@
         <v>45826.60013888889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
         <v>45091</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45840.60122685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>44543</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45938.32196759259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37308,7 +37308,7 @@
         <v>44944</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
         <v>45840.46704861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45840.62734953704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>44846</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>45939.36644675926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45937.48125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44914.46180555555</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45937.62387731481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45937.63146990741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45937.8341087963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45938.49991898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         <v>45938.5106712963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45545.42693287037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>45938.40478009259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>45939.39155092592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45938.56427083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>45938.38820601852</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38307,7 +38307,7 @@
         <v>45260.41273148148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>45112</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>45939.36616898148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>45940.4083912037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45943.58391203704</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45845.42341435186</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45940.58644675926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>45940.51144675926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45845.37259259259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45944.86888888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>45842.43515046296</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>45944.39328703703</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>45944.86627314815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>45945.65694444445</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>45944.59688657407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45944.5691087963</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>45399</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45088.92412037037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45944.31614583333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>45846.33505787037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>45946.71021990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45946.47287037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>45848.65680555555</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         <v>45946.67513888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>44606.44032407407</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45848.67791666667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44914</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45950.78769675926</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45951.41319444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>45142.80528935185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45950.43679398148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45950.58671296296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45950.3259837963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44333.58960648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45951.5771875</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45531.73709490741</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45803.66153935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45950.40690972222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45951.42306712963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45950.59583333333</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>44825</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45630</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45950.42702546297</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45951.53252314815</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45952.63239583333</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40912,7 +40912,7 @@
         <v>45953.3543287037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45952.66583333333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>45953.46032407408</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45952.44668981482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41160,7 +41160,7 @@
         <v>45952.54373842593</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41217,7 +41217,7 @@
         <v>45952.54824074074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45952.65568287037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45953.42037037037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45953.45091435185</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45952.593125</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41522,7 +41522,7 @@
         <v>45867.54707175926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41584,7 +41584,7 @@
         <v>45867.49550925926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41641,7 +41641,7 @@
         <v>44900.36453703704</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>45478.92875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>45866.39083333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>45952.49821759259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>45866.57740740741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>45953.36163194444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>45469.36478009259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>45952.41400462963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>45952.5571875</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>45952.55809027778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45866.460625</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42298,7 +42298,7 @@
         <v>45957.55465277778</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         <v>45868.43071759259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>45957.66818287037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>45957.73085648148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42531,7 +42531,7 @@
         <v>45868.33694444445</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45957.6184375</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45957.62016203703</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42707,7 +42707,7 @@
         <v>45957.61322916667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42764,7 +42764,7 @@
         <v>45870.41876157407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45957.29408564815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45562.45623842593</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42940,7 +42940,7 @@
         <v>44629.39452546297</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>45957.72361111111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>45873.53224537037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>45873.54766203704</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45873.54780092592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>45957.6162962963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>45957.28523148148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43354,7 +43354,7 @@
         <v>44846</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43411,7 +43411,7 @@
         <v>45957.71711805555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45875.32471064815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43530,7 +43530,7 @@
         <v>45874.49083333334</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45875.31435185186</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45874.48899305556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45876.59497685185</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>45525.48208333334</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44820.41207175926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45959.39545138889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45872</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45959.4962962963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45958.6490625</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>44727.45271990741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45958.70387731482</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45405</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45876.595</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45593.54328703704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45877.61789351852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45376</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45210.57967592592</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45695</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45576.45346064815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>45803.66194444444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>45940.55391203704</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45965.34315972222</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44920</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45723.52046296297</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45965.34202546296</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45819.38614583333</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45539</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45317</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45803.66822916667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45881.3749537037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44987</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45966.63635416667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45966.63638888889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45714.39142361111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45966.46192129629</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45883.63340277778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45510.32447916667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44805.60581018519</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45252</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>44740</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44606.62334490741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>45883.36050925926</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>45883.36371527778</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45709.67219907408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46135,7 +46135,7 @@
         <v>45709.67657407407</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>45709.67998842592</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46249,7 +46249,7 @@
         <v>45711</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>45405</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>45973.29459490741</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45972.3912037037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45882.65709490741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45883.36202546296</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45972.58538194445</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45615</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46705,7 +46705,7 @@
         <v>45975.48043981481</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46762,7 +46762,7 @@
         <v>45253</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         <v>45975.48876157407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>45975.45572916666</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45975.47570601852</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>45636</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45975.59364583333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45975.62614583333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>44742.3241550926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>44839.40086805556</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>46020.32105324074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>45978.84679398148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>45979.44579861111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>46021.59449074074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45978.46039351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>46021.72287037037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>46021.72010416666</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45980.65818287037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47741,7 +47741,7 @@
         <v>45471.47892361111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45981.57913194445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>45981.35362268519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45980.37606481482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45980.38856481481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45981.56964120371</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>45173</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>45198</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>45985.46605324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>45982.5025</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45982.55920138889</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>45982.43335648148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>45982.48462962963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>46027.43188657407</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48564,7 +48564,7 @@
         <v>45737.43314814815</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>45982.57263888889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48678,7 +48678,7 @@
         <v>45982.589375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48740,7 +48740,7 @@
         <v>45298</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45639</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48854,7 +48854,7 @@
         <v>45692.43077546296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48911,7 +48911,7 @@
         <v>45586</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>45986.58903935185</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45590.70138888889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>46027</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44249</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49211,7 +49211,7 @@
         <v>46029.44914351852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>46029.44916666667</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>46029.58945601852</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>45120.92637731481</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45733.49011574074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45681.84473379629</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49553,7 +49553,7 @@
         <v>46029.44908564815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49610,7 +49610,7 @@
         <v>45986.44831018519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>45988</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>44628.92515046296</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>46030.84501157407</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>45988.48623842592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>45273.46479166667</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>46031.62766203703</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50009,7 +50009,7 @@
         <v>46030.49034722222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         <v>45167</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50123,7 +50123,7 @@
         <v>45988.48995370371</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50180,7 +50180,7 @@
         <v>45989.39167824074</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50237,7 +50237,7 @@
         <v>45992.57311342593</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50299,7 +50299,7 @@
         <v>46034.38920138889</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50356,7 +50356,7 @@
         <v>45993.71936342592</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50413,7 +50413,7 @@
         <v>45992.58590277778</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50475,7 +50475,7 @@
         <v>45992.59212962963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
         <v>45572.49075231481</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         <v>45993.67747685185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50646,7 +50646,7 @@
         <v>45043</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50703,7 +50703,7 @@
         <v>45993.53934027778</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45993.62074074074</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50822,7 +50822,7 @@
         <v>45772.52554398148</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50879,7 +50879,7 @@
         <v>45740</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50936,7 +50936,7 @@
         <v>45505</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45755</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>46037.46994212963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>46041.42799768518</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51164,7 +51164,7 @@
         <v>44944</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51221,7 +51221,7 @@
         <v>45641</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51278,7 +51278,7 @@
         <v>45593.46998842592</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45454.81177083333</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45999.42503472222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>46041.56347222222</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>44652.92743055556</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45082.75269675926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>46041.42417824074</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>44672</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45692.47335648148</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>46041.50340277778</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51920,7 +51920,7 @@
         <v>45999.43951388889</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>45748.47508101852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>46043.50471064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>46038</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>46042.34534722222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
         <v>46001.57563657407</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52272,7 +52272,7 @@
         <v>46000.61884259259</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52329,7 +52329,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52391,7 +52391,7 @@
         <v>45427</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52448,7 +52448,7 @@
         <v>46034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52505,7 +52505,7 @@
         <v>46000.6234837963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>46000.62924768519</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52629,7 +52629,7 @@
         <v>45226</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52691,7 +52691,7 @@
         <v>45722</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52748,7 +52748,7 @@
         <v>46043.58797453704</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52805,7 +52805,7 @@
         <v>46001.59408564815</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52862,7 +52862,7 @@
         <v>46038</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52919,7 +52919,7 @@
         <v>46000.65633101852</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52976,7 +52976,7 @@
         <v>46000.65924768519</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53033,7 +53033,7 @@
         <v>46044.34483796296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53090,7 +53090,7 @@
         <v>46044.34902777777</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53147,7 +53147,7 @@
         <v>45098</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53204,7 +53204,7 @@
         <v>46003.40660879629</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53261,7 +53261,7 @@
         <v>46045.54386574074</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53318,7 +53318,7 @@
         <v>46044.3530787037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53375,7 +53375,7 @@
         <v>45741.46083333333</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53432,7 +53432,7 @@
         <v>46043</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>44473</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>44473</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45166</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45691</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>46044.35217592592</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>44839</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45524</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45539</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>46044.33671296296</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45120.92644675926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45120.92667824074</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54131,7 +54131,7 @@
         <v>44900.68913194445</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54188,7 +54188,7 @@
         <v>44981</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54245,7 +54245,7 @@
         <v>45720.38559027778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54302,7 +54302,7 @@
         <v>46007.60645833334</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54364,7 +54364,7 @@
         <v>44840</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54426,7 +54426,7 @@
         <v>46006.56528935185</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54483,7 +54483,7 @@
         <v>46006.59229166667</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54540,7 +54540,7 @@
         <v>46006.6196412037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54602,7 +54602,7 @@
         <v>46048.73274305555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54659,7 +54659,7 @@
         <v>46049.43063657408</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54716,7 +54716,7 @@
         <v>46006.37834490741</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54773,7 +54773,7 @@
         <v>46049.43133101852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54830,7 +54830,7 @@
         <v>46006.58546296296</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54887,7 +54887,7 @@
         <v>46006.59313657408</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54944,7 +54944,7 @@
         <v>45737.53160879629</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>46006.45099537037</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55063,7 +55063,7 @@
         <v>46048.3909375</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55120,7 +55120,7 @@
         <v>45140.49451388889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>46006.41694444444</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55239,7 +55239,7 @@
         <v>45771.46961805555</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>46050.3446412037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55353,7 +55353,7 @@
         <v>46050.34474537037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>46008.5975925926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55467,7 +55467,7 @@
         <v>46008.64984953704</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55524,7 +55524,7 @@
         <v>45180.67883101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55581,7 +55581,7 @@
         <v>45042</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55638,7 +55638,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55695,7 +55695,7 @@
         <v>46048</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44386.55082175926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55809,7 +55809,7 @@
         <v>45014</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44487.97035879629</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>45706.67732638889</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>45737.53157407408</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>46008.43460648148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>46048</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56166,7 +56166,7 @@
         <v>44790</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45267</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56280,7 +56280,7 @@
         <v>46013</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56337,7 +56337,7 @@
         <v>45439</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56399,7 +56399,7 @@
         <v>46010.48998842593</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56456,7 +56456,7 @@
         <v>46010.49005787037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56513,7 +56513,7 @@
         <v>44944</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56570,7 +56570,7 @@
         <v>46052.4488425926</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56627,7 +56627,7 @@
         <v>46055</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56684,7 +56684,7 @@
         <v>46052</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56741,7 +56741,7 @@
         <v>45037</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45470</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>46010.24019675926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>46010.27672453703</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>46010.23451388889</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>46010.3641087963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45908</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45569.53054398148</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57207,7 +57207,7 @@
         <v>45761.43072916667</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57269,7 +57269,7 @@
         <v>45301</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57326,7 +57326,7 @@
         <v>45078</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57383,7 +57383,7 @@
         <v>46010.5324537037</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57440,7 +57440,7 @@
         <v>45106</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57497,7 +57497,7 @@
         <v>46030</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57554,7 +57554,7 @@
         <v>45687.66449074074</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57616,7 +57616,7 @@
         <v>46050</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57673,7 +57673,7 @@
         <v>46014.31091435185</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57730,7 +57730,7 @@
         <v>46056.40042824074</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57787,7 +57787,7 @@
         <v>45065</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57844,7 +57844,7 @@
         <v>45441</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57901,7 +57901,7 @@
         <v>45561</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57958,7 +57958,7 @@
         <v>45448.42561342593</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58020,7 +58020,7 @@
         <v>46030</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         <v>46049</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58134,7 +58134,7 @@
         <v>45581.57825231482</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58191,7 +58191,7 @@
         <v>46037</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58248,7 +58248,7 @@
         <v>45803</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58305,7 +58305,7 @@
         <v>46057.53539351852</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58362,7 +58362,7 @@
         <v>46056.43702546296</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58419,7 +58419,7 @@
         <v>45512</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58476,7 +58476,7 @@
         <v>44594.92151620371</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58533,7 +58533,7 @@
         <v>46059.34295138889</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58590,7 +58590,7 @@
         <v>46059.36202546296</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58647,7 +58647,7 @@
         <v>45007</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58709,7 +58709,7 @@
         <v>46059.36795138889</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58766,7 +58766,7 @@
         <v>45455</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58823,7 +58823,7 @@
         <v>45030</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58880,7 +58880,7 @@
         <v>46058.6363425926</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -58937,7 +58937,7 @@
         <v>44949.55421296296</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -58994,7 +58994,7 @@
         <v>45623</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59051,7 +59051,7 @@
         <v>45174.45435185185</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59113,7 +59113,7 @@
         <v>45572</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59170,7 +59170,7 @@
         <v>45194.64578703704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59232,7 +59232,7 @@
         <v>44873</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59289,7 +59289,7 @@
         <v>45581.41333333333</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         <v>44382.3005787037</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59408,7 +59408,7 @@
         <v>45470.44721064815</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59465,7 +59465,7 @@
         <v>45252</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59522,7 +59522,7 @@
         <v>45623</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59579,7 +59579,7 @@
         <v>45481.50622685185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59636,7 +59636,7 @@
         <v>44326</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59693,7 +59693,7 @@
         <v>45670.42223379629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59750,7 +59750,7 @@
         <v>45175</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59812,7 +59812,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59869,7 +59869,7 @@
         <v>45616</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -59926,7 +59926,7 @@
         <v>45041</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -59988,7 +59988,7 @@
         <v>45510.40539351852</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60050,7 +60050,7 @@
         <v>45579.67520833333</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60112,7 +60112,7 @@
         <v>45271</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60169,7 +60169,7 @@
         <v>45744</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60231,7 +60231,7 @@
         <v>45033</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60293,7 +60293,7 @@
         <v>45505</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60350,7 +60350,7 @@
         <v>45503</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60412,7 +60412,7 @@
         <v>45385</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60469,7 +60469,7 @@
         <v>45197</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60531,7 +60531,7 @@
         <v>44481.32383101852</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60593,7 +60593,7 @@
         <v>45208.89429398148</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60650,7 +60650,7 @@
         <v>45455</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60707,7 +60707,7 @@
         <v>45113</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60764,7 +60764,7 @@
         <v>45572.73465277778</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60821,7 +60821,7 @@
         <v>45747.36483796296</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60878,7 +60878,7 @@
         <v>45747.40652777778</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -60935,7 +60935,7 @@
         <v>45244</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -60992,7 +60992,7 @@
         <v>45616</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61049,7 +61049,7 @@
         <v>45597.3706712963</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61111,7 +61111,7 @@
         <v>45538</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         <v>45530</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61235,7 +61235,7 @@
         <v>45309</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61292,7 +61292,7 @@
         <v>45469.36628472222</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61349,7 +61349,7 @@
         <v>45205</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61406,7 +61406,7 @@
         <v>45089.49538194444</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61463,7 +61463,7 @@
         <v>45249.95226851852</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61520,7 +61520,7 @@
         <v>45642.63862268518</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61577,7 +61577,7 @@
         <v>45250.48440972222</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61634,7 +61634,7 @@
         <v>45593.42652777778</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61696,7 +61696,7 @@
         <v>45744</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61758,7 +61758,7 @@
         <v>44939</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61815,7 +61815,7 @@
         <v>45272</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61872,7 +61872,7 @@
         <v>45708</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -61934,7 +61934,7 @@
         <v>45735.39761574074</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -61991,7 +61991,7 @@
         <v>45735</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62048,7 +62048,7 @@
         <v>45579.64884259259</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62105,7 +62105,7 @@
         <v>45215</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62162,7 +62162,7 @@
         <v>45714</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62224,7 +62224,7 @@
         <v>45426</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62281,7 +62281,7 @@
         <v>45392</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62338,7 +62338,7 @@
         <v>45708</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62400,7 +62400,7 @@
         <v>45531</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62457,7 +62457,7 @@
         <v>45576</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62514,7 +62514,7 @@
         <v>44379</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62571,7 +62571,7 @@
         <v>45199.87405092592</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62628,7 +62628,7 @@
         <v>45580.37296296296</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62690,7 +62690,7 @@
         <v>45629</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62747,7 +62747,7 @@
         <v>44873.43465277777</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62804,7 +62804,7 @@
         <v>45230</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -62861,7 +62861,7 @@
         <v>45755.34568287037</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -62918,7 +62918,7 @@
         <v>45764.44584490741</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -62980,7 +62980,7 @@
         <v>45077.66282407408</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63037,7 +63037,7 @@
         <v>45013</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63094,7 +63094,7 @@
         <v>45345</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63151,7 +63151,7 @@
         <v>45107</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63208,7 +63208,7 @@
         <v>44805.5507175926</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63270,7 +63270,7 @@
         <v>45539</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63327,7 +63327,7 @@
         <v>44427</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63384,7 +63384,7 @@
         <v>44378.49517361111</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63441,7 +63441,7 @@
         <v>45225.53422453703</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63498,7 +63498,7 @@
         <v>45576.47199074074</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63560,7 +63560,7 @@
         <v>45167</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63622,7 +63622,7 @@
         <v>44274</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63679,7 +63679,7 @@
         <v>45617.58597222222</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63741,7 +63741,7 @@
         <v>45244</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63798,7 +63798,7 @@
         <v>45141</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -63860,7 +63860,7 @@
         <v>45016</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -63922,7 +63922,7 @@
         <v>45471.56107638889</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -63984,7 +63984,7 @@
         <v>45478</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64041,7 +64041,7 @@
         <v>45706.57314814815</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64098,7 +64098,7 @@
         <v>45714.35774305555</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64155,7 +64155,7 @@
         <v>45531.41466435185</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64212,7 +64212,7 @@
         <v>45316</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         <v>45574.70622685185</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64331,7 +64331,7 @@
         <v>45009</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64388,7 +64388,7 @@
         <v>45033</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64450,7 +64450,7 @@
         <v>45047</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64507,7 +64507,7 @@
         <v>45714</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64569,7 +64569,7 @@
         <v>45099</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64631,7 +64631,7 @@
         <v>45111</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64688,7 +64688,7 @@
         <v>45511</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64745,7 +64745,7 @@
         <v>45538.62810185185</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64807,7 +64807,7 @@
         <v>45594</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -64864,7 +64864,7 @@
         <v>45706.39457175926</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -64921,7 +64921,7 @@
         <v>45706.39914351852</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -64978,7 +64978,7 @@
         <v>45737.5315625</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         <v>45366</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65092,7 +65092,7 @@
         <v>45440.42893518518</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65149,7 +65149,7 @@
         <v>45530</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65211,7 +65211,7 @@
         <v>45516.54195601852</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65268,7 +65268,7 @@
         <v>45544</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65325,7 +65325,7 @@
         <v>45761.56107638889</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65387,7 +65387,7 @@
         <v>45040</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65449,7 +65449,7 @@
         <v>45362.46013888889</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         <v>45048</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65563,7 +65563,7 @@
         <v>45735</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65620,7 +65620,7 @@
         <v>45755.42978009259</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65682,7 +65682,7 @@
         <v>45572</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65739,7 +65739,7 @@
         <v>45516.5365625</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65796,7 +65796,7 @@
         <v>45514.37979166667</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -65858,7 +65858,7 @@
         <v>45216</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -65920,7 +65920,7 @@
         <v>45217</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -65982,7 +65982,7 @@
         <v>45217</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -66044,7 +66044,7 @@
         <v>45615</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -66101,7 +66101,7 @@
         <v>44550</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -66158,7 +66158,7 @@
         <v>45006</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -66220,7 +66220,7 @@
         <v>45168</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -66277,7 +66277,7 @@
         <v>45436</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -66334,7 +66334,7 @@
         <v>45561.69625</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -66391,7 +66391,7 @@
         <v>44802.31871527778</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -66448,7 +66448,7 @@
         <v>45154</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -66505,7 +66505,7 @@
         <v>45261.66517361111</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -66562,7 +66562,7 @@
         <v>45484.92354166666</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         <v>45427.93501157407</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -66676,7 +66676,7 @@
         <v>44410</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -66738,7 +66738,7 @@
         <v>45741.41429398148</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -66795,7 +66795,7 @@
         <v>44715.33833333333</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -66852,7 +66852,7 @@
         <v>45260</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -66909,7 +66909,7 @@
         <v>45755.35048611111</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -66966,7 +66966,7 @@
         <v>45616</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -67023,7 +67023,7 @@
         <v>45636.57275462963</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -67080,7 +67080,7 @@
         <v>45033.92614583333</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -67137,7 +67137,7 @@
         <v>45646.58855324074</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -67194,7 +67194,7 @@
         <v>44931</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -67251,7 +67251,7 @@
         <v>44937</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
         <v>44480</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         <v>45530.52100694444</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -67422,7 +67422,7 @@
         <v>45635</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -67479,7 +67479,7 @@
         <v>45777.46688657408</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -67536,7 +67536,7 @@
         <v>45747.50991898148</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -67593,7 +67593,7 @@
         <v>45636.4705787037</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -67650,7 +67650,7 @@
         <v>45779.52741898148</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -67712,7 +67712,7 @@
         <v>44432</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -67769,7 +67769,7 @@
         <v>44305</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -67831,7 +67831,7 @@
         <v>45783.68131944445</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -67893,7 +67893,7 @@
         <v>45783.68863425926</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -67955,7 +67955,7 @@
         <v>45783.67894675926</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -68012,7 +68012,7 @@
         <v>45783.39127314815</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -68069,7 +68069,7 @@
         <v>45783.39449074074</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -68126,7 +68126,7 @@
         <v>45749</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -68183,7 +68183,7 @@
         <v>45784</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -68240,7 +68240,7 @@
         <v>45785.55422453704</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -68297,7 +68297,7 @@
         <v>45785.55462962963</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -68354,7 +68354,7 @@
         <v>45785.58844907407</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -68411,7 +68411,7 @@
         <v>45784</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -68468,7 +68468,7 @@
         <v>45789.47297453704</v>
       </c>
       <c r="C1089" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -68525,7 +68525,7 @@
         <v>45635</v>
       </c>
       <c r="C1090" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -68582,7 +68582,7 @@
         <v>45748</v>
       </c>
       <c r="C1091" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -68639,7 +68639,7 @@
         <v>45484.9237037037</v>
       </c>
       <c r="C1092" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -68696,7 +68696,7 @@
         <v>45790.34162037037</v>
       </c>
       <c r="C1093" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -68758,7 +68758,7 @@
         <v>44308</v>
       </c>
       <c r="C1094" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -68815,7 +68815,7 @@
         <v>45791.5622337963</v>
       </c>
       <c r="C1095" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         <v>45790</v>
       </c>
       <c r="C1096" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -68934,7 +68934,7 @@
         <v>45789.49047453704</v>
       </c>
       <c r="C1097" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -68991,7 +68991,7 @@
         <v>45792.4493287037</v>
       </c>
       <c r="C1098" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -69048,7 +69048,7 @@
         <v>45792.58780092592</v>
       </c>
       <c r="C1099" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -69105,7 +69105,7 @@
         <v>45792.3788425926</v>
       </c>
       <c r="C1100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -69162,7 +69162,7 @@
         <v>45792</v>
       </c>
       <c r="C1101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -69219,7 +69219,7 @@
         <v>45792.48252314814</v>
       </c>
       <c r="C1102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -69281,7 +69281,7 @@
         <v>45488</v>
       </c>
       <c r="C1103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -69338,7 +69338,7 @@
         <v>45516.57533564815</v>
       </c>
       <c r="C1104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -69395,7 +69395,7 @@
         <v>45632.57494212963</v>
       </c>
       <c r="C1105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>

--- a/Översikt UMEÅ.xlsx
+++ b/Översikt UMEÅ.xlsx
@@ -575,7 +575,7 @@
         <v>45579</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -694,7 +694,7 @@
         <v>45546</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>45884.39982638889</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -923,7 +923,7 @@
         <v>45562</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1037,7 +1037,7 @@
         <v>45799</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1145,7 +1145,7 @@
         <v>45783.39288194444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         <v>45342</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1357,7 +1357,7 @@
         <v>45447</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1467,7 +1467,7 @@
         <v>44427</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>46038</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         <v>45561.72197916666</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         <v>44973</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1870,7 +1870,7 @@
         <v>45747</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>44868</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2060,7 +2060,7 @@
         <v>45937.5946412037</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2161,7 +2161,7 @@
         <v>45987.35112268518</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2258,7 +2258,7 @@
         <v>44826</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         <v>45020</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>45586</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2553,7 +2553,7 @@
         <v>45014</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2654,7 +2654,7 @@
         <v>45594</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         <v>45110</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45579.49459490741</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2945,7 +2945,7 @@
         <v>45784.52596064815</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3040,7 +3040,7 @@
         <v>44715</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3134,7 +3134,7 @@
         <v>45819.37813657407</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3233,7 +3233,7 @@
         <v>45784</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3327,7 +3327,7 @@
         <v>44867</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>45406.44877314815</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3511,7 +3511,7 @@
         <v>45019</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>45874.46988425926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>45562.50009259259</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3796,7 +3796,7 @@
         <v>44645</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>44781</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3983,7 +3983,7 @@
         <v>44785.31300925926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4080,7 +4080,7 @@
         <v>44407</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>44670.33049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>44407</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4367,7 +4367,7 @@
         <v>45426</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4464,7 +4464,7 @@
         <v>45807.47395833334</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4552,7 +4552,7 @@
         <v>45734</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>44321.91877314815</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>45610.51162037037</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>44914.92446759259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>45664.51217592593</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5004,7 +5004,7 @@
         <v>44861</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45676.48310185185</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>45195</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5287,7 +5287,7 @@
         <v>45523.49939814815</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5379,7 +5379,7 @@
         <v>44925</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5471,7 +5471,7 @@
         <v>44593.65526620371</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5559,7 +5559,7 @@
         <v>44406</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         <v>45826.41837962963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5738,7 +5738,7 @@
         <v>45019</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45695</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5921,7 +5921,7 @@
         <v>45684.45954861111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>46027.41774305556</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45965.34184027778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -6190,7 +6190,7 @@
         <v>46027.43534722222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>45160</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6373,7 +6373,7 @@
         <v>44406</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6464,7 +6464,7 @@
         <v>44407</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45594.70607638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         <v>44406</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6732,7 +6732,7 @@
         <v>45827.34200231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45930.46909722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6904,7 +6904,7 @@
         <v>45840.61583333334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6990,7 +6990,7 @@
         <v>45840.63028935185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         <v>45873.64189814815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -7175,7 +7175,7 @@
         <v>45356</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
         <v>45993.6286574074</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7352,7 +7352,7 @@
         <v>45581.45096064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -7442,7 +7442,7 @@
         <v>45343</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -7532,7 +7532,7 @@
         <v>45523.60684027777</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -7623,7 +7623,7 @@
         <v>45043</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>44619</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>45562.50609953704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7890,7 +7890,7 @@
         <v>44406</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7979,7 +7979,7 @@
         <v>44406</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -8069,7 +8069,7 @@
         <v>44406</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -8159,7 +8159,7 @@
         <v>44602</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>44406</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -8338,7 +8338,7 @@
         <v>44407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44407</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -8526,7 +8526,7 @@
         <v>44354</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>44406</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -8701,7 +8701,7 @@
         <v>44859.59534722222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -8791,7 +8791,7 @@
         <v>44862</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -8881,7 +8881,7 @@
         <v>44715</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -8966,7 +8966,7 @@
         <v>44407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -9056,7 +9056,7 @@
         <v>44446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -9141,7 +9141,7 @@
         <v>45104</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -9226,7 +9226,7 @@
         <v>44904</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -9311,7 +9311,7 @@
         <v>45275</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -9400,7 +9400,7 @@
         <v>45167</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>45099</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -9580,7 +9580,7 @@
         <v>45755.64905092592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -9665,7 +9665,7 @@
         <v>45558</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>45576</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>45211.33486111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -9933,7 +9933,7 @@
         <v>45824.60902777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -10027,7 +10027,7 @@
         <v>45019</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10117,7 +10117,7 @@
         <v>44305</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -10206,7 +10206,7 @@
         <v>45908</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         <v>45939.36646990741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -10381,7 +10381,7 @@
         <v>44673</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -10470,7 +10470,7 @@
         <v>45847</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -10559,7 +10559,7 @@
         <v>45723.33811342593</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -10644,7 +10644,7 @@
         <v>45874.43534722222</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45558.34784722222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -10814,7 +10814,7 @@
         <v>45176</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -10904,7 +10904,7 @@
         <v>44305</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>45579</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -11083,7 +11083,7 @@
         <v>46030.49030092593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -11168,7 +11168,7 @@
         <v>44772</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
         <v>46048.72559027778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -11342,7 +11342,7 @@
         <v>46006.47403935185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         <v>45993.70097222222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -11520,7 +11520,7 @@
         <v>45426</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -11614,7 +11614,7 @@
         <v>45567.41245370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -11699,7 +11699,7 @@
         <v>45579.495</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -11789,7 +11789,7 @@
         <v>45086</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -11874,7 +11874,7 @@
         <v>44631</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         <v>45251</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>45216</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -12139,7 +12139,7 @@
         <v>45404</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -12228,7 +12228,7 @@
         <v>45470</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -12313,7 +12313,7 @@
         <v>45110</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -12403,7 +12403,7 @@
         <v>44455</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>45569.38002314815</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>44837</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>45624</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -12748,7 +12748,7 @@
         <v>44817.5884375</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -12810,7 +12810,7 @@
         <v>44410</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -12872,7 +12872,7 @@
         <v>44407</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -12934,7 +12934,7 @@
         <v>44407</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -12996,7 +12996,7 @@
         <v>44587</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13053,7 +13053,7 @@
         <v>44824.91319444445</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -13110,7 +13110,7 @@
         <v>44407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -13172,7 +13172,7 @@
         <v>44784.31969907408</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -13229,7 +13229,7 @@
         <v>44406</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -13291,7 +13291,7 @@
         <v>44406</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -13353,7 +13353,7 @@
         <v>44406</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44406</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -13477,7 +13477,7 @@
         <v>44406</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44788</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44652.92739583334</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44314</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -13710,7 +13710,7 @@
         <v>44406</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -13772,7 +13772,7 @@
         <v>44361</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
         <v>44361</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -13886,7 +13886,7 @@
         <v>44407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44320</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>44407</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -14067,7 +14067,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44410</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44777.60917824074</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44470.62471064815</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44456</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -14362,7 +14362,7 @@
         <v>44772.67398148148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -14419,7 +14419,7 @@
         <v>44489</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -14476,7 +14476,7 @@
         <v>44841.65748842592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -14538,7 +14538,7 @@
         <v>44406</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -14595,7 +14595,7 @@
         <v>44406</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44846</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44410</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -14776,7 +14776,7 @@
         <v>44406</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -14833,7 +14833,7 @@
         <v>44865</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -14895,7 +14895,7 @@
         <v>44606.62075231481</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -14952,7 +14952,7 @@
         <v>44729</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -15009,7 +15009,7 @@
         <v>44816.46444444444</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>44410</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -15133,7 +15133,7 @@
         <v>44406</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -15195,7 +15195,7 @@
         <v>44407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -15257,7 +15257,7 @@
         <v>44407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44854.43480324074</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44687</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44524</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -15495,7 +15495,7 @@
         <v>44742</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -15552,7 +15552,7 @@
         <v>44841</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -15609,7 +15609,7 @@
         <v>44860</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -15666,7 +15666,7 @@
         <v>44467</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44813</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -15785,7 +15785,7 @@
         <v>44341</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -15842,7 +15842,7 @@
         <v>44846</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -15899,7 +15899,7 @@
         <v>44354</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -15956,7 +15956,7 @@
         <v>44249</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -16013,7 +16013,7 @@
         <v>44715</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -16070,7 +16070,7 @@
         <v>44859.60186342592</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -16132,7 +16132,7 @@
         <v>44599</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -16189,7 +16189,7 @@
         <v>44410</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -16251,7 +16251,7 @@
         <v>44410</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -16313,7 +16313,7 @@
         <v>44452</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -16370,7 +16370,7 @@
         <v>44872</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -16427,7 +16427,7 @@
         <v>44355</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -16484,7 +16484,7 @@
         <v>44407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -16541,7 +16541,7 @@
         <v>44407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -16603,7 +16603,7 @@
         <v>44407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -16665,7 +16665,7 @@
         <v>44407</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -16727,7 +16727,7 @@
         <v>44407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -16789,7 +16789,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -16846,7 +16846,7 @@
         <v>44609</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -16903,7 +16903,7 @@
         <v>44410</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         <v>44851</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         <v>44631</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -17084,7 +17084,7 @@
         <v>44846</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -17141,7 +17141,7 @@
         <v>44410</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -17203,7 +17203,7 @@
         <v>44406</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>44406</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -17322,7 +17322,7 @@
         <v>44406</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -17384,7 +17384,7 @@
         <v>44670.33633101852</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>44407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>44407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -17570,7 +17570,7 @@
         <v>44410</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -17632,7 +17632,7 @@
         <v>44410</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -17694,7 +17694,7 @@
         <v>44410</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44410</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -17818,7 +17818,7 @@
         <v>44619.72355324074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -17875,7 +17875,7 @@
         <v>44321</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -17932,7 +17932,7 @@
         <v>44463</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -17989,7 +17989,7 @@
         <v>44566</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -18046,7 +18046,7 @@
         <v>44599.93688657408</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -18103,7 +18103,7 @@
         <v>44830</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -18160,7 +18160,7 @@
         <v>44343</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -18217,7 +18217,7 @@
         <v>44433</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -18274,7 +18274,7 @@
         <v>44588.39104166667</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -18336,7 +18336,7 @@
         <v>44839.46023148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -18393,7 +18393,7 @@
         <v>44840</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>44741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>44376</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -18564,7 +18564,7 @@
         <v>44606</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -18621,7 +18621,7 @@
         <v>44848</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -18683,7 +18683,7 @@
         <v>44714</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -18740,7 +18740,7 @@
         <v>44846</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -18797,7 +18797,7 @@
         <v>44606</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -18854,7 +18854,7 @@
         <v>44407</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -18911,7 +18911,7 @@
         <v>44350</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -18968,7 +18968,7 @@
         <v>44410</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -19030,7 +19030,7 @@
         <v>44410</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -19092,7 +19092,7 @@
         <v>44642.92290509259</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -19149,7 +19149,7 @@
         <v>44838</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -19206,7 +19206,7 @@
         <v>44407</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -19263,7 +19263,7 @@
         <v>44407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -19320,7 +19320,7 @@
         <v>44385</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -19382,7 +19382,7 @@
         <v>44606</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -19439,7 +19439,7 @@
         <v>44407</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -19501,7 +19501,7 @@
         <v>44475.92033564814</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -19558,7 +19558,7 @@
         <v>44495</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -19615,7 +19615,7 @@
         <v>44631</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -19677,7 +19677,7 @@
         <v>44407</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -19739,7 +19739,7 @@
         <v>44407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -19801,7 +19801,7 @@
         <v>44533</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -19858,7 +19858,7 @@
         <v>44581.48346064815</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -19915,7 +19915,7 @@
         <v>45418</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -19972,7 +19972,7 @@
         <v>45037</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -20034,7 +20034,7 @@
         <v>44840</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -20091,7 +20091,7 @@
         <v>44503</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -20148,7 +20148,7 @@
         <v>45501.40922453703</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -20205,7 +20205,7 @@
         <v>45531.74990740741</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -20262,7 +20262,7 @@
         <v>44944</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -20319,7 +20319,7 @@
         <v>44944.4013425926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -20376,7 +20376,7 @@
         <v>45470</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -20433,7 +20433,7 @@
         <v>45630.3946875</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -20490,7 +20490,7 @@
         <v>45609.38349537037</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -20552,7 +20552,7 @@
         <v>45685.60450231482</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -20609,7 +20609,7 @@
         <v>45524</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -20666,7 +20666,7 @@
         <v>45670.4403587963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -20723,7 +20723,7 @@
         <v>45567</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -20780,7 +20780,7 @@
         <v>45037</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -20842,7 +20842,7 @@
         <v>45484.92328703704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -20899,7 +20899,7 @@
         <v>45252</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -20956,7 +20956,7 @@
         <v>45211</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -21013,7 +21013,7 @@
         <v>45720.64917824074</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -21070,7 +21070,7 @@
         <v>45681.82818287037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -21127,7 +21127,7 @@
         <v>45681.83350694444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -21184,7 +21184,7 @@
         <v>45722</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -21241,7 +21241,7 @@
         <v>44818.57295138889</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -21298,7 +21298,7 @@
         <v>45572</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -21355,7 +21355,7 @@
         <v>45572.49082175926</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -21412,7 +21412,7 @@
         <v>45349</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -21469,7 +21469,7 @@
         <v>45572.47104166666</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -21526,7 +21526,7 @@
         <v>44419.57832175926</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -21588,7 +21588,7 @@
         <v>45264</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -21645,7 +21645,7 @@
         <v>45698.62097222222</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44610.92238425926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -21759,7 +21759,7 @@
         <v>45428</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -21816,7 +21816,7 @@
         <v>45012.50180555556</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -21873,7 +21873,7 @@
         <v>45677</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -21930,7 +21930,7 @@
         <v>44644.47650462963</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -21987,7 +21987,7 @@
         <v>45068.92700231481</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -22044,7 +22044,7 @@
         <v>44904</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -22101,7 +22101,7 @@
         <v>44456.59263888889</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -22158,7 +22158,7 @@
         <v>45392</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -22215,7 +22215,7 @@
         <v>44631.33300925926</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -22277,7 +22277,7 @@
         <v>44606.933125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -22334,7 +22334,7 @@
         <v>45749.43325231481</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -22391,7 +22391,7 @@
         <v>45247.47055555556</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -22448,7 +22448,7 @@
         <v>45545.41424768518</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -22505,7 +22505,7 @@
         <v>45573.42783564814</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -22562,7 +22562,7 @@
         <v>45345</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -22619,7 +22619,7 @@
         <v>45345</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -22676,7 +22676,7 @@
         <v>45733.59627314815</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -22733,7 +22733,7 @@
         <v>45469.73981481481</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -22795,7 +22795,7 @@
         <v>44446.91958333334</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -22852,7 +22852,7 @@
         <v>45769.52287037037</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -22914,7 +22914,7 @@
         <v>45301</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -22971,7 +22971,7 @@
         <v>45769.425625</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -23028,7 +23028,7 @@
         <v>44294</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -23085,7 +23085,7 @@
         <v>45401</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -23147,7 +23147,7 @@
         <v>45691.50020833333</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -23204,7 +23204,7 @@
         <v>45709.66362268518</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -23261,7 +23261,7 @@
         <v>45309</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -23323,7 +23323,7 @@
         <v>45447.67429398148</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -23385,7 +23385,7 @@
         <v>45022</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -23447,7 +23447,7 @@
         <v>44287.61318287037</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -23504,7 +23504,7 @@
         <v>44902.57146990741</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -23566,7 +23566,7 @@
         <v>44841</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -23623,7 +23623,7 @@
         <v>45028</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -23685,7 +23685,7 @@
         <v>45522.81311342592</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44984</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>45761</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44488.6871875</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>45475</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44467</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>45884.62400462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>45604.40876157407</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -24151,7 +24151,7 @@
         <v>45798</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -24213,7 +24213,7 @@
         <v>45243.34</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -24270,7 +24270,7 @@
         <v>45749</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -24327,7 +24327,7 @@
         <v>45799</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -24389,7 +24389,7 @@
         <v>45677.49140046296</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -24446,7 +24446,7 @@
         <v>45798.44232638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -24503,7 +24503,7 @@
         <v>45544</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -24560,7 +24560,7 @@
         <v>45775</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -24617,7 +24617,7 @@
         <v>45756.67292824074</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -24674,7 +24674,7 @@
         <v>44874</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -24736,7 +24736,7 @@
         <v>44931.3587962963</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -24793,7 +24793,7 @@
         <v>45722.37076388889</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -24850,7 +24850,7 @@
         <v>44592.40050925926</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -24907,7 +24907,7 @@
         <v>45343</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -24964,7 +24964,7 @@
         <v>45771.68980324074</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -25021,7 +25021,7 @@
         <v>45804.44883101852</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -25078,7 +25078,7 @@
         <v>44734</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -25135,7 +25135,7 @@
         <v>45222.41521990741</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>45805.65432870371</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -25249,7 +25249,7 @@
         <v>45580.70097222222</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -25306,7 +25306,7 @@
         <v>44679</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -25363,7 +25363,7 @@
         <v>45887.58591435185</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -25420,7 +25420,7 @@
         <v>45805.47530092593</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -25482,7 +25482,7 @@
         <v>45455.52168981481</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -25539,7 +25539,7 @@
         <v>45740.66287037037</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -25596,7 +25596,7 @@
         <v>44749.9266087963</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -25653,7 +25653,7 @@
         <v>45019</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -25715,7 +25715,7 @@
         <v>45447.46972222222</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -25777,7 +25777,7 @@
         <v>45407</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -25834,7 +25834,7 @@
         <v>44382</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -25891,7 +25891,7 @@
         <v>45811.39753472222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -25953,7 +25953,7 @@
         <v>45889.58655092592</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -26010,7 +26010,7 @@
         <v>45702.46836805555</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -26067,7 +26067,7 @@
         <v>45702.47341435185</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -26124,7 +26124,7 @@
         <v>45645.66707175926</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -26186,7 +26186,7 @@
         <v>45666.47462962963</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -26243,7 +26243,7 @@
         <v>45698.36478009259</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -26300,7 +26300,7 @@
         <v>45237</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -26357,7 +26357,7 @@
         <v>45176</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
         <v>45812.46246527778</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -26476,7 +26476,7 @@
         <v>45463</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -26533,7 +26533,7 @@
         <v>45890.43826388889</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -26590,7 +26590,7 @@
         <v>45891.53517361111</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -26647,7 +26647,7 @@
         <v>44406</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -26709,7 +26709,7 @@
         <v>45891.56422453704</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -26766,7 +26766,7 @@
         <v>45813.646875</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -26823,7 +26823,7 @@
         <v>45812.34858796297</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -26880,7 +26880,7 @@
         <v>45812.34997685185</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -26937,7 +26937,7 @@
         <v>45813.65648148148</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -26999,7 +26999,7 @@
         <v>45561.65799768519</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -27056,7 +27056,7 @@
         <v>44980</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -27118,7 +27118,7 @@
         <v>45623</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -27175,7 +27175,7 @@
         <v>45698.34443287037</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -27232,7 +27232,7 @@
         <v>45769.44732638889</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -27289,7 +27289,7 @@
         <v>45826.43984953704</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -27346,7 +27346,7 @@
         <v>45827.36939814815</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -27403,7 +27403,7 @@
         <v>44574.65519675926</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -27460,7 +27460,7 @@
         <v>45894.39484953704</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -27517,7 +27517,7 @@
         <v>45894.39736111111</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -27574,7 +27574,7 @@
         <v>45894.60689814815</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -27631,7 +27631,7 @@
         <v>45838.47287037037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -27688,7 +27688,7 @@
         <v>45897.6433912037</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -27750,7 +27750,7 @@
         <v>45889</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -27807,7 +27807,7 @@
         <v>45110.63961805555</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -27869,7 +27869,7 @@
         <v>45110.70980324074</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -27931,7 +27931,7 @@
         <v>45897.63927083334</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -27993,7 +27993,7 @@
         <v>45897.36565972222</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -28050,7 +28050,7 @@
         <v>45471</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -28112,7 +28112,7 @@
         <v>44299</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -28169,7 +28169,7 @@
         <v>45897.6609837963</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -28231,7 +28231,7 @@
         <v>44840</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -28288,7 +28288,7 @@
         <v>45898</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -28345,7 +28345,7 @@
         <v>44483</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -28402,7 +28402,7 @@
         <v>45898.53366898148</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -28464,7 +28464,7 @@
         <v>45901.62168981481</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -28521,7 +28521,7 @@
         <v>45439</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -28578,7 +28578,7 @@
         <v>45785.58716435185</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -28635,7 +28635,7 @@
         <v>44917</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -28692,7 +28692,7 @@
         <v>45901</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -28749,7 +28749,7 @@
         <v>45821.56319444445</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -28806,7 +28806,7 @@
         <v>45902</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -28863,7 +28863,7 @@
         <v>45747.40657407408</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -28920,7 +28920,7 @@
         <v>45729.40373842593</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -28977,7 +28977,7 @@
         <v>45820.55613425926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -29034,7 +29034,7 @@
         <v>45756.67138888889</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -29091,7 +29091,7 @@
         <v>45820.55162037037</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -29148,7 +29148,7 @@
         <v>45803.66111111111</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -29205,7 +29205,7 @@
         <v>44313</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -29262,7 +29262,7 @@
         <v>45183</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -29319,7 +29319,7 @@
         <v>45572.49059027778</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -29376,7 +29376,7 @@
         <v>44874</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -29438,7 +29438,7 @@
         <v>45673.51619212963</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -29495,7 +29495,7 @@
         <v>45820.55875</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -29552,7 +29552,7 @@
         <v>45484</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -29609,7 +29609,7 @@
         <v>45824.48300925926</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -29666,7 +29666,7 @@
         <v>45904</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -29723,7 +29723,7 @@
         <v>45120.92650462963</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -29780,7 +29780,7 @@
         <v>45070</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -29837,7 +29837,7 @@
         <v>45825.38503472223</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -29899,7 +29899,7 @@
         <v>45840.42099537037</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -29956,7 +29956,7 @@
         <v>45541.53135416667</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -30018,7 +30018,7 @@
         <v>45604</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -30075,7 +30075,7 @@
         <v>45904.44513888889</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -30137,7 +30137,7 @@
         <v>45905.71921296296</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -30194,7 +30194,7 @@
         <v>45834.55314814814</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -30251,7 +30251,7 @@
         <v>45722</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -30308,7 +30308,7 @@
         <v>45904.48623842592</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -30370,7 +30370,7 @@
         <v>45904.49043981481</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -30432,7 +30432,7 @@
         <v>45825.29293981481</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44314</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>45908</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>45825.55847222222</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -30670,7 +30670,7 @@
         <v>45908.60465277778</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -30727,7 +30727,7 @@
         <v>45824.43114583333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -30784,7 +30784,7 @@
         <v>45909</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -30841,7 +30841,7 @@
         <v>45909</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -30903,7 +30903,7 @@
         <v>45909.49864583334</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -30965,7 +30965,7 @@
         <v>45909.66037037037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -31022,7 +31022,7 @@
         <v>45824.31930555555</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -31084,7 +31084,7 @@
         <v>44740</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -31141,7 +31141,7 @@
         <v>45825.63641203703</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -31198,7 +31198,7 @@
         <v>45824.54091435186</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -31260,7 +31260,7 @@
         <v>45824.48680555556</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -31317,7 +31317,7 @@
         <v>45824.50795138889</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -31374,7 +31374,7 @@
         <v>45826.42918981481</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -31431,7 +31431,7 @@
         <v>45827.43445601852</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -31488,7 +31488,7 @@
         <v>45576.48241898148</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -31550,7 +31550,7 @@
         <v>45912.63535879629</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -31612,7 +31612,7 @@
         <v>45912.6982175926</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -31669,7 +31669,7 @@
         <v>44606.93429398148</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -31726,7 +31726,7 @@
         <v>45915.54059027778</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -31788,7 +31788,7 @@
         <v>44825</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -31845,7 +31845,7 @@
         <v>45915.59853009259</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -31902,7 +31902,7 @@
         <v>45915.55290509259</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -31959,7 +31959,7 @@
         <v>45912</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -32021,7 +32021,7 @@
         <v>45912.39591435185</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -32078,7 +32078,7 @@
         <v>45912.40680555555</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -32135,7 +32135,7 @@
         <v>45488</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -32197,7 +32197,7 @@
         <v>45488</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -32259,7 +32259,7 @@
         <v>45912.53976851852</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -32321,7 +32321,7 @@
         <v>44847</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -32378,7 +32378,7 @@
         <v>45646.64148148148</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -32435,7 +32435,7 @@
         <v>45917.65262731481</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -32497,7 +32497,7 @@
         <v>45916.66503472222</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -32559,7 +32559,7 @@
         <v>45917.64240740741</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -32616,7 +32616,7 @@
         <v>45552</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -32678,7 +32678,7 @@
         <v>45635.31018518518</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -32740,7 +32740,7 @@
         <v>45917.68104166666</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -32797,7 +32797,7 @@
         <v>44355</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -32854,7 +32854,7 @@
         <v>45916.54780092592</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -32911,7 +32911,7 @@
         <v>45919.53916666667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -32973,7 +32973,7 @@
         <v>45041.61890046296</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -33030,7 +33030,7 @@
         <v>45831.65424768518</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -33087,7 +33087,7 @@
         <v>45371</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -33149,7 +33149,7 @@
         <v>45559.49118055555</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -33206,7 +33206,7 @@
         <v>44619.71880787037</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -33263,7 +33263,7 @@
         <v>45918.42427083333</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -33320,7 +33320,7 @@
         <v>44606.61752314815</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -33377,7 +33377,7 @@
         <v>45831.48987268518</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -33434,7 +33434,7 @@
         <v>45432.48533564815</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -33491,7 +33491,7 @@
         <v>45833.72009259259</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -33548,7 +33548,7 @@
         <v>45923.5107175926</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -33605,7 +33605,7 @@
         <v>45923.65701388889</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -33662,7 +33662,7 @@
         <v>45923.35769675926</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -33719,7 +33719,7 @@
         <v>45832.86366898148</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -33781,7 +33781,7 @@
         <v>45202</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -33838,7 +33838,7 @@
         <v>45923.35368055556</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -33895,7 +33895,7 @@
         <v>44620.92203703704</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -33952,7 +33952,7 @@
         <v>45923.53181712963</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -34009,7 +34009,7 @@
         <v>45922.55172453704</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -34066,7 +34066,7 @@
         <v>45832.64778935185</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -34128,7 +34128,7 @@
         <v>45924.48327546296</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -34185,7 +34185,7 @@
         <v>45189</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -34247,7 +34247,7 @@
         <v>45091</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -34304,7 +34304,7 @@
         <v>45091</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -34361,7 +34361,7 @@
         <v>44515.55709490741</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -34418,7 +34418,7 @@
         <v>44774</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -34475,7 +34475,7 @@
         <v>45832.44204861111</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -34532,7 +34532,7 @@
         <v>44908.65792824074</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -34589,7 +34589,7 @@
         <v>45924.4768287037</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -34646,7 +34646,7 @@
         <v>45925.57604166667</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -34708,7 +34708,7 @@
         <v>45832.54769675926</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -34765,7 +34765,7 @@
         <v>45834.6284375</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -34822,7 +34822,7 @@
         <v>45055</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -34879,7 +34879,7 @@
         <v>45470.93101851852</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -34936,7 +34936,7 @@
         <v>45446</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -34993,7 +34993,7 @@
         <v>45929.32023148148</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -35050,7 +35050,7 @@
         <v>45566</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -35112,7 +35112,7 @@
         <v>44330</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -35169,7 +35169,7 @@
         <v>45926.54784722222</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -35231,7 +35231,7 @@
         <v>45679.35350694445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -35288,7 +35288,7 @@
         <v>45926.39637731481</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -35345,7 +35345,7 @@
         <v>45929.54004629629</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -35407,7 +35407,7 @@
         <v>45835.49601851852</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -35469,7 +35469,7 @@
         <v>45356</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -35526,7 +35526,7 @@
         <v>45356.4062962963</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -35583,7 +35583,7 @@
         <v>45926.39612268518</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -35640,7 +35640,7 @@
         <v>45929.46907407408</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -35697,7 +35697,7 @@
         <v>45929.48913194444</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -35754,7 +35754,7 @@
         <v>45348.62467592592</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -35816,7 +35816,7 @@
         <v>45147</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -35873,7 +35873,7 @@
         <v>45462</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -35930,7 +35930,7 @@
         <v>45723.51538194445</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -35987,7 +35987,7 @@
         <v>45930.30091435185</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -36044,7 +36044,7 @@
         <v>45930.32789351852</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -36101,7 +36101,7 @@
         <v>45646.65800925926</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -36158,7 +36158,7 @@
         <v>45930.62444444445</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -36215,7 +36215,7 @@
         <v>45481</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -36272,7 +36272,7 @@
         <v>44438</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -36329,7 +36329,7 @@
         <v>45932.64318287037</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -36386,7 +36386,7 @@
         <v>45933.57060185185</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -36443,7 +36443,7 @@
         <v>45932.4290625</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -36500,7 +36500,7 @@
         <v>45103</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -36557,7 +36557,7 @@
         <v>45694</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -36614,7 +36614,7 @@
         <v>45838.48564814815</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -36671,7 +36671,7 @@
         <v>44983</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -36733,7 +36733,7 @@
         <v>44511</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -36790,7 +36790,7 @@
         <v>45932.6515625</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -36847,7 +36847,7 @@
         <v>45840.6047800926</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -36904,7 +36904,7 @@
         <v>45933.56834490741</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -36961,7 +36961,7 @@
         <v>45540.37623842592</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -37018,7 +37018,7 @@
         <v>45826.60013888889</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -37075,7 +37075,7 @@
         <v>45091</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -37132,7 +37132,7 @@
         <v>45840.60122685185</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -37189,7 +37189,7 @@
         <v>44543</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -37246,7 +37246,7 @@
         <v>45938.32196759259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -37308,7 +37308,7 @@
         <v>44944</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -37365,7 +37365,7 @@
         <v>45840.46704861111</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -37422,7 +37422,7 @@
         <v>45840.62734953704</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -37479,7 +37479,7 @@
         <v>44846</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -37536,7 +37536,7 @@
         <v>45939.36644675926</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -37593,7 +37593,7 @@
         <v>45937.48125</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -37655,7 +37655,7 @@
         <v>44914.46180555555</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -37717,7 +37717,7 @@
         <v>45937.62387731481</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -37774,7 +37774,7 @@
         <v>45937.63146990741</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -37831,7 +37831,7 @@
         <v>45937.8341087963</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -37888,7 +37888,7 @@
         <v>45938.49991898148</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -37950,7 +37950,7 @@
         <v>45938.5106712963</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -38007,7 +38007,7 @@
         <v>45545.42693287037</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -38064,7 +38064,7 @@
         <v>45938.40478009259</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -38126,7 +38126,7 @@
         <v>45939.39155092592</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -38183,7 +38183,7 @@
         <v>45938.56427083333</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -38245,7 +38245,7 @@
         <v>45938.38820601852</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -38307,7 +38307,7 @@
         <v>45260.41273148148</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -38364,7 +38364,7 @@
         <v>45112</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -38421,7 +38421,7 @@
         <v>45939.36616898148</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -38478,7 +38478,7 @@
         <v>45940.4083912037</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -38535,7 +38535,7 @@
         <v>45943.58391203704</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -38592,7 +38592,7 @@
         <v>45845.42341435186</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -38654,7 +38654,7 @@
         <v>45940.58644675926</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -38711,7 +38711,7 @@
         <v>45940.51144675926</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -38768,7 +38768,7 @@
         <v>45845.37259259259</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -38830,7 +38830,7 @@
         <v>45944.86888888889</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -38887,7 +38887,7 @@
         <v>45842.43515046296</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -38944,7 +38944,7 @@
         <v>45944.39328703703</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -39001,7 +39001,7 @@
         <v>45944.86627314815</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -39058,7 +39058,7 @@
         <v>45945.65694444445</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -39115,7 +39115,7 @@
         <v>45944.59688657407</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -39177,7 +39177,7 @@
         <v>45944.5691087963</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -39234,7 +39234,7 @@
         <v>45399</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -39291,7 +39291,7 @@
         <v>45088.92412037037</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -39353,7 +39353,7 @@
         <v>45944.31614583333</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -39410,7 +39410,7 @@
         <v>45846.33505787037</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -39467,7 +39467,7 @@
         <v>45946.71021990741</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -39529,7 +39529,7 @@
         <v>45946.47287037037</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -39586,7 +39586,7 @@
         <v>45848.65680555555</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -39643,7 +39643,7 @@
         <v>45946.67513888889</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -39700,7 +39700,7 @@
         <v>44606.44032407407</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -39757,7 +39757,7 @@
         <v>45848.67791666667</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -39814,7 +39814,7 @@
         <v>44914</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -39871,7 +39871,7 @@
         <v>45950.78769675926</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -39928,7 +39928,7 @@
         <v>45951.41319444445</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -39985,7 +39985,7 @@
         <v>45142.80528935185</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -40042,7 +40042,7 @@
         <v>45950.43679398148</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -40099,7 +40099,7 @@
         <v>45950.58671296296</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -40161,7 +40161,7 @@
         <v>45950.3259837963</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -40218,7 +40218,7 @@
         <v>44333.58960648148</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -40275,7 +40275,7 @@
         <v>45951.5771875</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -40332,7 +40332,7 @@
         <v>45531.73709490741</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -40389,7 +40389,7 @@
         <v>45803.66153935185</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -40446,7 +40446,7 @@
         <v>45950.40690972222</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -40503,7 +40503,7 @@
         <v>45951.42306712963</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -40560,7 +40560,7 @@
         <v>45950.59583333333</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -40622,7 +40622,7 @@
         <v>44825</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -40679,7 +40679,7 @@
         <v>45630</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -40736,7 +40736,7 @@
         <v>45950.42702546297</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -40793,7 +40793,7 @@
         <v>45951.53252314815</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -40850,7 +40850,7 @@
         <v>45952.63239583333</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -40912,7 +40912,7 @@
         <v>45953.3543287037</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -40974,7 +40974,7 @@
         <v>45952.66583333333</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -41036,7 +41036,7 @@
         <v>45953.46032407408</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -41098,7 +41098,7 @@
         <v>45952.44668981482</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -41160,7 +41160,7 @@
         <v>45952.54373842593</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -41217,7 +41217,7 @@
         <v>45952.54824074074</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -41274,7 +41274,7 @@
         <v>45952.65568287037</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -41336,7 +41336,7 @@
         <v>45953.42037037037</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -41398,7 +41398,7 @@
         <v>45953.45091435185</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -41460,7 +41460,7 @@
         <v>45952.593125</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -41522,7 +41522,7 @@
         <v>45867.54707175926</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -41584,7 +41584,7 @@
         <v>45867.49550925926</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -41641,7 +41641,7 @@
         <v>44900.36453703704</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -41698,7 +41698,7 @@
         <v>45478.92875</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -41755,7 +41755,7 @@
         <v>45866.39083333333</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -41817,7 +41817,7 @@
         <v>45952.49821759259</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -41879,7 +41879,7 @@
         <v>45866.57740740741</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -41941,7 +41941,7 @@
         <v>45953.36163194444</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -42003,7 +42003,7 @@
         <v>45469.36478009259</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         <v>45952.41400462963</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -42117,7 +42117,7 @@
         <v>45952.5571875</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -42179,7 +42179,7 @@
         <v>45952.55809027778</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -42236,7 +42236,7 @@
         <v>45866.460625</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -42298,7 +42298,7 @@
         <v>45957.55465277778</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -42355,7 +42355,7 @@
         <v>45868.43071759259</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -42417,7 +42417,7 @@
         <v>45957.66818287037</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -42474,7 +42474,7 @@
         <v>45957.73085648148</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -42531,7 +42531,7 @@
         <v>45868.33694444445</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -42593,7 +42593,7 @@
         <v>45957.6184375</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -42650,7 +42650,7 @@
         <v>45957.62016203703</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -42707,7 +42707,7 @@
         <v>45957.61322916667</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -42764,7 +42764,7 @@
         <v>45870.41876157407</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -42826,7 +42826,7 @@
         <v>45957.29408564815</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -42883,7 +42883,7 @@
         <v>45562.45623842593</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -42940,7 +42940,7 @@
         <v>44629.39452546297</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -42997,7 +42997,7 @@
         <v>45957.72361111111</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -43054,7 +43054,7 @@
         <v>45873.53224537037</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -43116,7 +43116,7 @@
         <v>45873.54766203704</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -43178,7 +43178,7 @@
         <v>45873.54780092592</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -43240,7 +43240,7 @@
         <v>45957.6162962963</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -43297,7 +43297,7 @@
         <v>45957.28523148148</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -43354,7 +43354,7 @@
         <v>44846</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -43411,7 +43411,7 @@
         <v>45957.71711805555</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -43468,7 +43468,7 @@
         <v>45875.32471064815</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -43530,7 +43530,7 @@
         <v>45874.49083333334</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -43587,7 +43587,7 @@
         <v>45875.31435185186</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -43649,7 +43649,7 @@
         <v>45874.48899305556</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -43706,7 +43706,7 @@
         <v>45876.59497685185</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -43763,7 +43763,7 @@
         <v>45525.48208333334</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -43825,7 +43825,7 @@
         <v>44820.41207175926</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -43882,7 +43882,7 @@
         <v>45959.39545138889</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -43939,7 +43939,7 @@
         <v>45872</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -43996,7 +43996,7 @@
         <v>45959.4962962963</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -44053,7 +44053,7 @@
         <v>45958.6490625</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -44110,7 +44110,7 @@
         <v>44727.45271990741</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -44167,7 +44167,7 @@
         <v>45958.70387731482</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -44224,7 +44224,7 @@
         <v>45405</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -44281,7 +44281,7 @@
         <v>45876.595</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -44338,7 +44338,7 @@
         <v>45593.54328703704</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -44400,7 +44400,7 @@
         <v>45877.61789351852</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -44457,7 +44457,7 @@
         <v>45376</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -44514,7 +44514,7 @@
         <v>45210.57967592592</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -44576,7 +44576,7 @@
         <v>45695</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -44633,7 +44633,7 @@
         <v>45576.45346064815</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -44695,7 +44695,7 @@
         <v>45803.66194444444</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -44752,7 +44752,7 @@
         <v>45940.55391203704</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -44814,7 +44814,7 @@
         <v>45965.34315972222</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -44871,7 +44871,7 @@
         <v>44920</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -44928,7 +44928,7 @@
         <v>45723.52046296297</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -44985,7 +44985,7 @@
         <v>45965.34202546296</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -45042,7 +45042,7 @@
         <v>45819.38614583333</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -45099,7 +45099,7 @@
         <v>45539</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -45156,7 +45156,7 @@
         <v>45317</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -45213,7 +45213,7 @@
         <v>45803.66822916667</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -45270,7 +45270,7 @@
         <v>45881.3749537037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -45327,7 +45327,7 @@
         <v>44987</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -45384,7 +45384,7 @@
         <v>45966.63635416667</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -45441,7 +45441,7 @@
         <v>45966.63638888889</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -45498,7 +45498,7 @@
         <v>45714.39142361111</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -45555,7 +45555,7 @@
         <v>45966.46192129629</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -45612,7 +45612,7 @@
         <v>45883.63340277778</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -45669,7 +45669,7 @@
         <v>45510.32447916667</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -45731,7 +45731,7 @@
         <v>44805.60581018519</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -45793,7 +45793,7 @@
         <v>45252</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -45850,7 +45850,7 @@
         <v>44740</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -45907,7 +45907,7 @@
         <v>44606.62334490741</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -45964,7 +45964,7 @@
         <v>45883.36050925926</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -46021,7 +46021,7 @@
         <v>45883.36371527778</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -46078,7 +46078,7 @@
         <v>45709.67219907408</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -46135,7 +46135,7 @@
         <v>45709.67657407407</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -46192,7 +46192,7 @@
         <v>45709.67998842592</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -46249,7 +46249,7 @@
         <v>45711</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -46306,7 +46306,7 @@
         <v>45405</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -46363,7 +46363,7 @@
         <v>45973.29459490741</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -46420,7 +46420,7 @@
         <v>45972.3912037037</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -46477,7 +46477,7 @@
         <v>45882.65709490741</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -46534,7 +46534,7 @@
         <v>45883.36202546296</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -46591,7 +46591,7 @@
         <v>45972.58538194445</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>45615</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -46705,7 +46705,7 @@
         <v>45975.48043981481</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -46762,7 +46762,7 @@
         <v>45253</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -46819,7 +46819,7 @@
         <v>45975.48876157407</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -46881,7 +46881,7 @@
         <v>45975.45572916666</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -46943,7 +46943,7 @@
         <v>45975.47570601852</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -47000,7 +47000,7 @@
         <v>45636</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -47057,7 +47057,7 @@
         <v>45975.59364583333</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -47114,7 +47114,7 @@
         <v>45975.62614583333</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -47171,7 +47171,7 @@
         <v>44742.3241550926</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -47228,7 +47228,7 @@
         <v>44839.40086805556</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -47285,7 +47285,7 @@
         <v>46020.32105324074</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -47342,7 +47342,7 @@
         <v>45978.84679398148</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -47399,7 +47399,7 @@
         <v>45979.44579861111</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -47456,7 +47456,7 @@
         <v>46021.59449074074</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -47513,7 +47513,7 @@
         <v>45978.46039351852</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -47570,7 +47570,7 @@
         <v>46021.72287037037</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -47627,7 +47627,7 @@
         <v>46021.72010416666</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -47684,7 +47684,7 @@
         <v>45980.65818287037</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -47741,7 +47741,7 @@
         <v>45471.47892361111</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -47803,7 +47803,7 @@
         <v>45981.57913194445</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -47860,7 +47860,7 @@
         <v>45981.35362268519</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -47922,7 +47922,7 @@
         <v>45980.37606481482</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -47979,7 +47979,7 @@
         <v>45980.38856481481</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -48036,7 +48036,7 @@
         <v>45981.56964120371</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -48098,7 +48098,7 @@
         <v>45173</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -48155,7 +48155,7 @@
         <v>45198</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -48212,7 +48212,7 @@
         <v>45985.46605324074</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>
@@ -48269,7 +48269,7 @@
         <v>45982.5025</v>
       </c>
       <c r="C742" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D742" t="inlineStr">
         <is>
@@ -48331,7 +48331,7 @@
         <v>45982.55920138889</v>
       </c>
       <c r="C743" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D743" t="inlineStr">
         <is>
@@ -48388,7 +48388,7 @@
         <v>45982.43335648148</v>
       </c>
       <c r="C744" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D744" t="inlineStr">
         <is>
@@ -48450,7 +48450,7 @@
         <v>45982.48462962963</v>
       </c>
       <c r="C745" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D745" t="inlineStr">
         <is>
@@ -48507,7 +48507,7 @@
         <v>46027.43188657407</v>
       </c>
       <c r="C746" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D746" t="inlineStr">
         <is>
@@ -48564,7 +48564,7 @@
         <v>45737.43314814815</v>
       </c>
       <c r="C747" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D747" t="inlineStr">
         <is>
@@ -48621,7 +48621,7 @@
         <v>45982.57263888889</v>
       </c>
       <c r="C748" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D748" t="inlineStr">
         <is>
@@ -48678,7 +48678,7 @@
         <v>45982.589375</v>
       </c>
       <c r="C749" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D749" t="inlineStr">
         <is>
@@ -48740,7 +48740,7 @@
         <v>45298</v>
       </c>
       <c r="C750" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D750" t="inlineStr">
         <is>
@@ -48797,7 +48797,7 @@
         <v>45639</v>
       </c>
       <c r="C751" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D751" t="inlineStr">
         <is>
@@ -48854,7 +48854,7 @@
         <v>45692.43077546296</v>
       </c>
       <c r="C752" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D752" t="inlineStr">
         <is>
@@ -48911,7 +48911,7 @@
         <v>45586</v>
       </c>
       <c r="C753" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D753" t="inlineStr">
         <is>
@@ -48973,7 +48973,7 @@
         <v>45986.58903935185</v>
       </c>
       <c r="C754" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D754" t="inlineStr">
         <is>
@@ -49035,7 +49035,7 @@
         <v>45590.70138888889</v>
       </c>
       <c r="C755" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D755" t="inlineStr">
         <is>
@@ -49097,7 +49097,7 @@
         <v>46027</v>
       </c>
       <c r="C756" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D756" t="inlineStr">
         <is>
@@ -49154,7 +49154,7 @@
         <v>44249</v>
       </c>
       <c r="C757" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D757" t="inlineStr">
         <is>
@@ -49211,7 +49211,7 @@
         <v>46029.44914351852</v>
       </c>
       <c r="C758" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D758" t="inlineStr">
         <is>
@@ -49268,7 +49268,7 @@
         <v>46029.44916666667</v>
       </c>
       <c r="C759" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D759" t="inlineStr">
         <is>
@@ -49325,7 +49325,7 @@
         <v>46029.58945601852</v>
       </c>
       <c r="C760" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D760" t="inlineStr">
         <is>
@@ -49382,7 +49382,7 @@
         <v>45120.92637731481</v>
       </c>
       <c r="C761" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D761" t="inlineStr">
         <is>
@@ -49439,7 +49439,7 @@
         <v>45733.49011574074</v>
       </c>
       <c r="C762" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D762" t="inlineStr">
         <is>
@@ -49496,7 +49496,7 @@
         <v>45681.84473379629</v>
       </c>
       <c r="C763" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D763" t="inlineStr">
         <is>
@@ -49553,7 +49553,7 @@
         <v>46029.44908564815</v>
       </c>
       <c r="C764" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D764" t="inlineStr">
         <is>
@@ -49610,7 +49610,7 @@
         <v>45986.44831018519</v>
       </c>
       <c r="C765" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D765" t="inlineStr">
         <is>
@@ -49667,7 +49667,7 @@
         <v>45988</v>
       </c>
       <c r="C766" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D766" t="inlineStr">
         <is>
@@ -49724,7 +49724,7 @@
         <v>44628.92515046296</v>
       </c>
       <c r="C767" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D767" t="inlineStr">
         <is>
@@ -49781,7 +49781,7 @@
         <v>46030.84501157407</v>
       </c>
       <c r="C768" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D768" t="inlineStr">
         <is>
@@ -49838,7 +49838,7 @@
         <v>45988.48623842592</v>
       </c>
       <c r="C769" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D769" t="inlineStr">
         <is>
@@ -49895,7 +49895,7 @@
         <v>45273.46479166667</v>
       </c>
       <c r="C770" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D770" t="inlineStr">
         <is>
@@ -49952,7 +49952,7 @@
         <v>46031.62766203703</v>
       </c>
       <c r="C771" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D771" t="inlineStr">
         <is>
@@ -50009,7 +50009,7 @@
         <v>46030.49034722222</v>
       </c>
       <c r="C772" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D772" t="inlineStr">
         <is>
@@ -50066,7 +50066,7 @@
         <v>45167</v>
       </c>
       <c r="C773" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D773" t="inlineStr">
         <is>
@@ -50123,7 +50123,7 @@
         <v>45988.48995370371</v>
       </c>
       <c r="C774" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D774" t="inlineStr">
         <is>
@@ -50180,7 +50180,7 @@
         <v>45989.39167824074</v>
       </c>
       <c r="C775" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D775" t="inlineStr">
         <is>
@@ -50237,7 +50237,7 @@
         <v>45992.57311342593</v>
       </c>
       <c r="C776" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D776" t="inlineStr">
         <is>
@@ -50299,7 +50299,7 @@
         <v>46034.38920138889</v>
       </c>
       <c r="C777" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D777" t="inlineStr">
         <is>
@@ -50356,7 +50356,7 @@
         <v>45993.71936342592</v>
       </c>
       <c r="C778" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D778" t="inlineStr">
         <is>
@@ -50413,7 +50413,7 @@
         <v>45992.58590277778</v>
       </c>
       <c r="C779" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D779" t="inlineStr">
         <is>
@@ -50475,7 +50475,7 @@
         <v>45992.59212962963</v>
       </c>
       <c r="C780" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D780" t="inlineStr">
         <is>
@@ -50532,7 +50532,7 @@
         <v>45572.49075231481</v>
       </c>
       <c r="C781" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D781" t="inlineStr">
         <is>
@@ -50589,7 +50589,7 @@
         <v>45993.67747685185</v>
       </c>
       <c r="C782" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D782" t="inlineStr">
         <is>
@@ -50646,7 +50646,7 @@
         <v>45043</v>
       </c>
       <c r="C783" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D783" t="inlineStr">
         <is>
@@ -50703,7 +50703,7 @@
         <v>45993.53934027778</v>
       </c>
       <c r="C784" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D784" t="inlineStr">
         <is>
@@ -50760,7 +50760,7 @@
         <v>45993.62074074074</v>
       </c>
       <c r="C785" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D785" t="inlineStr">
         <is>
@@ -50822,7 +50822,7 @@
         <v>45772.52554398148</v>
       </c>
       <c r="C786" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D786" t="inlineStr">
         <is>
@@ -50879,7 +50879,7 @@
         <v>45740</v>
       </c>
       <c r="C787" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D787" t="inlineStr">
         <is>
@@ -50936,7 +50936,7 @@
         <v>45505</v>
       </c>
       <c r="C788" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D788" t="inlineStr">
         <is>
@@ -50993,7 +50993,7 @@
         <v>45755</v>
       </c>
       <c r="C789" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D789" t="inlineStr">
         <is>
@@ -51050,7 +51050,7 @@
         <v>46037.46994212963</v>
       </c>
       <c r="C790" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D790" t="inlineStr">
         <is>
@@ -51107,7 +51107,7 @@
         <v>46041.42799768518</v>
       </c>
       <c r="C791" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D791" t="inlineStr">
         <is>
@@ -51164,7 +51164,7 @@
         <v>44944</v>
       </c>
       <c r="C792" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D792" t="inlineStr">
         <is>
@@ -51221,7 +51221,7 @@
         <v>45641</v>
       </c>
       <c r="C793" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D793" t="inlineStr">
         <is>
@@ -51278,7 +51278,7 @@
         <v>45593.46998842592</v>
       </c>
       <c r="C794" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D794" t="inlineStr">
         <is>
@@ -51340,7 +51340,7 @@
         <v>45454.81177083333</v>
       </c>
       <c r="C795" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D795" t="inlineStr">
         <is>
@@ -51402,7 +51402,7 @@
         <v>45037</v>
       </c>
       <c r="C796" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D796" t="inlineStr">
         <is>
@@ -51459,7 +51459,7 @@
         <v>45999.42503472222</v>
       </c>
       <c r="C797" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D797" t="inlineStr">
         <is>
@@ -51516,7 +51516,7 @@
         <v>46041.56347222222</v>
       </c>
       <c r="C798" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D798" t="inlineStr">
         <is>
@@ -51573,7 +51573,7 @@
         <v>44652.92743055556</v>
       </c>
       <c r="C799" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D799" t="inlineStr">
         <is>
@@ -51630,7 +51630,7 @@
         <v>45082.75269675926</v>
       </c>
       <c r="C800" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D800" t="inlineStr">
         <is>
@@ -51687,7 +51687,7 @@
         <v>46041.42417824074</v>
       </c>
       <c r="C801" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D801" t="inlineStr">
         <is>
@@ -51744,7 +51744,7 @@
         <v>44672</v>
       </c>
       <c r="C802" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D802" t="inlineStr">
         <is>
@@ -51801,7 +51801,7 @@
         <v>45692.47335648148</v>
       </c>
       <c r="C803" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D803" t="inlineStr">
         <is>
@@ -51858,7 +51858,7 @@
         <v>46041.50340277778</v>
       </c>
       <c r="C804" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D804" t="inlineStr">
         <is>
@@ -51920,7 +51920,7 @@
         <v>45999.43951388889</v>
       </c>
       <c r="C805" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D805" t="inlineStr">
         <is>
@@ -51982,7 +51982,7 @@
         <v>45748.47508101852</v>
       </c>
       <c r="C806" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D806" t="inlineStr">
         <is>
@@ -52039,7 +52039,7 @@
         <v>46043.50471064815</v>
       </c>
       <c r="C807" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D807" t="inlineStr">
         <is>
@@ -52096,7 +52096,7 @@
         <v>46038</v>
       </c>
       <c r="C808" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D808" t="inlineStr">
         <is>
@@ -52153,7 +52153,7 @@
         <v>46042.34534722222</v>
       </c>
       <c r="C809" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D809" t="inlineStr">
         <is>
@@ -52215,7 +52215,7 @@
         <v>46001.57563657407</v>
       </c>
       <c r="C810" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D810" t="inlineStr">
         <is>
@@ -52272,7 +52272,7 @@
         <v>46000.61884259259</v>
       </c>
       <c r="C811" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D811" t="inlineStr">
         <is>
@@ -52329,7 +52329,7 @@
         <v>45041</v>
       </c>
       <c r="C812" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D812" t="inlineStr">
         <is>
@@ -52391,7 +52391,7 @@
         <v>45427</v>
       </c>
       <c r="C813" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D813" t="inlineStr">
         <is>
@@ -52448,7 +52448,7 @@
         <v>46034</v>
       </c>
       <c r="C814" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D814" t="inlineStr">
         <is>
@@ -52505,7 +52505,7 @@
         <v>46000.6234837963</v>
       </c>
       <c r="C815" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D815" t="inlineStr">
         <is>
@@ -52567,7 +52567,7 @@
         <v>46000.62924768519</v>
       </c>
       <c r="C816" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D816" t="inlineStr">
         <is>
@@ -52629,7 +52629,7 @@
         <v>45226</v>
       </c>
       <c r="C817" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D817" t="inlineStr">
         <is>
@@ -52691,7 +52691,7 @@
         <v>45722</v>
       </c>
       <c r="C818" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D818" t="inlineStr">
         <is>
@@ -52748,7 +52748,7 @@
         <v>46043.58797453704</v>
       </c>
       <c r="C819" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D819" t="inlineStr">
         <is>
@@ -52805,7 +52805,7 @@
         <v>46001.59408564815</v>
       </c>
       <c r="C820" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D820" t="inlineStr">
         <is>
@@ -52862,7 +52862,7 @@
         <v>46038</v>
       </c>
       <c r="C821" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D821" t="inlineStr">
         <is>
@@ -52919,7 +52919,7 @@
         <v>46000.65633101852</v>
       </c>
       <c r="C822" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D822" t="inlineStr">
         <is>
@@ -52976,7 +52976,7 @@
         <v>46000.65924768519</v>
       </c>
       <c r="C823" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D823" t="inlineStr">
         <is>
@@ -53033,7 +53033,7 @@
         <v>46044.34483796296</v>
       </c>
       <c r="C824" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D824" t="inlineStr">
         <is>
@@ -53090,7 +53090,7 @@
         <v>46044.34902777777</v>
       </c>
       <c r="C825" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D825" t="inlineStr">
         <is>
@@ -53147,7 +53147,7 @@
         <v>45098</v>
       </c>
       <c r="C826" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D826" t="inlineStr">
         <is>
@@ -53204,7 +53204,7 @@
         <v>46003.40660879629</v>
       </c>
       <c r="C827" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D827" t="inlineStr">
         <is>
@@ -53261,7 +53261,7 @@
         <v>46045.54386574074</v>
       </c>
       <c r="C828" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D828" t="inlineStr">
         <is>
@@ -53318,7 +53318,7 @@
         <v>46044.3530787037</v>
       </c>
       <c r="C829" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D829" t="inlineStr">
         <is>
@@ -53375,7 +53375,7 @@
         <v>45741.46083333333</v>
       </c>
       <c r="C830" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D830" t="inlineStr">
         <is>
@@ -53432,7 +53432,7 @@
         <v>46043</v>
       </c>
       <c r="C831" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D831" t="inlineStr">
         <is>
@@ -53489,7 +53489,7 @@
         <v>44473</v>
       </c>
       <c r="C832" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D832" t="inlineStr">
         <is>
@@ -53551,7 +53551,7 @@
         <v>44473</v>
       </c>
       <c r="C833" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D833" t="inlineStr">
         <is>
@@ -53613,7 +53613,7 @@
         <v>45166</v>
       </c>
       <c r="C834" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D834" t="inlineStr">
         <is>
@@ -53670,7 +53670,7 @@
         <v>45691</v>
       </c>
       <c r="C835" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D835" t="inlineStr">
         <is>
@@ -53727,7 +53727,7 @@
         <v>46044.35217592592</v>
       </c>
       <c r="C836" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D836" t="inlineStr">
         <is>
@@ -53784,7 +53784,7 @@
         <v>44839</v>
       </c>
       <c r="C837" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D837" t="inlineStr">
         <is>
@@ -53841,7 +53841,7 @@
         <v>45524</v>
       </c>
       <c r="C838" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D838" t="inlineStr">
         <is>
@@ -53903,7 +53903,7 @@
         <v>45539</v>
       </c>
       <c r="C839" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D839" t="inlineStr">
         <is>
@@ -53960,7 +53960,7 @@
         <v>46044.33671296296</v>
       </c>
       <c r="C840" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D840" t="inlineStr">
         <is>
@@ -54017,7 +54017,7 @@
         <v>45120.92644675926</v>
       </c>
       <c r="C841" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D841" t="inlineStr">
         <is>
@@ -54074,7 +54074,7 @@
         <v>45120.92667824074</v>
       </c>
       <c r="C842" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D842" t="inlineStr">
         <is>
@@ -54131,7 +54131,7 @@
         <v>44900.68913194445</v>
       </c>
       <c r="C843" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D843" t="inlineStr">
         <is>
@@ -54188,7 +54188,7 @@
         <v>44981</v>
       </c>
       <c r="C844" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D844" t="inlineStr">
         <is>
@@ -54245,7 +54245,7 @@
         <v>45720.38559027778</v>
       </c>
       <c r="C845" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D845" t="inlineStr">
         <is>
@@ -54302,7 +54302,7 @@
         <v>46007.60645833334</v>
       </c>
       <c r="C846" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D846" t="inlineStr">
         <is>
@@ -54364,7 +54364,7 @@
         <v>44840</v>
       </c>
       <c r="C847" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D847" t="inlineStr">
         <is>
@@ -54426,7 +54426,7 @@
         <v>46006.56528935185</v>
       </c>
       <c r="C848" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D848" t="inlineStr">
         <is>
@@ -54483,7 +54483,7 @@
         <v>46006.59229166667</v>
       </c>
       <c r="C849" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D849" t="inlineStr">
         <is>
@@ -54540,7 +54540,7 @@
         <v>46006.6196412037</v>
       </c>
       <c r="C850" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D850" t="inlineStr">
         <is>
@@ -54602,7 +54602,7 @@
         <v>46048.73274305555</v>
       </c>
       <c r="C851" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D851" t="inlineStr">
         <is>
@@ -54659,7 +54659,7 @@
         <v>46049.43063657408</v>
       </c>
       <c r="C852" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D852" t="inlineStr">
         <is>
@@ -54716,7 +54716,7 @@
         <v>46006.37834490741</v>
       </c>
       <c r="C853" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D853" t="inlineStr">
         <is>
@@ -54773,7 +54773,7 @@
         <v>46049.43133101852</v>
       </c>
       <c r="C854" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D854" t="inlineStr">
         <is>
@@ -54830,7 +54830,7 @@
         <v>46006.58546296296</v>
       </c>
       <c r="C855" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D855" t="inlineStr">
         <is>
@@ -54887,7 +54887,7 @@
         <v>46006.59313657408</v>
       </c>
       <c r="C856" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D856" t="inlineStr">
         <is>
@@ -54944,7 +54944,7 @@
         <v>45737.53160879629</v>
       </c>
       <c r="C857" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D857" t="inlineStr">
         <is>
@@ -55001,7 +55001,7 @@
         <v>46006.45099537037</v>
       </c>
       <c r="C858" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D858" t="inlineStr">
         <is>
@@ -55063,7 +55063,7 @@
         <v>46048.3909375</v>
       </c>
       <c r="C859" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D859" t="inlineStr">
         <is>
@@ -55120,7 +55120,7 @@
         <v>45140.49451388889</v>
       </c>
       <c r="C860" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D860" t="inlineStr">
         <is>
@@ -55182,7 +55182,7 @@
         <v>46006.41694444444</v>
       </c>
       <c r="C861" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D861" t="inlineStr">
         <is>
@@ -55239,7 +55239,7 @@
         <v>45771.46961805555</v>
       </c>
       <c r="C862" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D862" t="inlineStr">
         <is>
@@ -55296,7 +55296,7 @@
         <v>46050.3446412037</v>
       </c>
       <c r="C863" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D863" t="inlineStr">
         <is>
@@ -55353,7 +55353,7 @@
         <v>46050.34474537037</v>
       </c>
       <c r="C864" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D864" t="inlineStr">
         <is>
@@ -55410,7 +55410,7 @@
         <v>46008.5975925926</v>
       </c>
       <c r="C865" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D865" t="inlineStr">
         <is>
@@ -55467,7 +55467,7 @@
         <v>46008.64984953704</v>
       </c>
       <c r="C866" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D866" t="inlineStr">
         <is>
@@ -55524,7 +55524,7 @@
         <v>45180.67883101852</v>
       </c>
       <c r="C867" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D867" t="inlineStr">
         <is>
@@ -55581,7 +55581,7 @@
         <v>45042</v>
       </c>
       <c r="C868" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D868" t="inlineStr">
         <is>
@@ -55638,7 +55638,7 @@
         <v>46050.38971064815</v>
       </c>
       <c r="C869" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D869" t="inlineStr">
         <is>
@@ -55695,7 +55695,7 @@
         <v>46048</v>
       </c>
       <c r="C870" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D870" t="inlineStr">
         <is>
@@ -55752,7 +55752,7 @@
         <v>44386.55082175926</v>
       </c>
       <c r="C871" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D871" t="inlineStr">
         <is>
@@ -55809,7 +55809,7 @@
         <v>45014</v>
       </c>
       <c r="C872" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D872" t="inlineStr">
         <is>
@@ -55871,7 +55871,7 @@
         <v>44487.97035879629</v>
       </c>
       <c r="C873" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D873" t="inlineStr">
         <is>
@@ -55933,7 +55933,7 @@
         <v>45706.67732638889</v>
       </c>
       <c r="C874" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D874" t="inlineStr">
         <is>
@@ -55990,7 +55990,7 @@
         <v>45737.53157407408</v>
       </c>
       <c r="C875" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D875" t="inlineStr">
         <is>
@@ -56047,7 +56047,7 @@
         <v>46008.43460648148</v>
       </c>
       <c r="C876" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D876" t="inlineStr">
         <is>
@@ -56109,7 +56109,7 @@
         <v>46048</v>
       </c>
       <c r="C877" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D877" t="inlineStr">
         <is>
@@ -56166,7 +56166,7 @@
         <v>44790</v>
       </c>
       <c r="C878" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D878" t="inlineStr">
         <is>
@@ -56223,7 +56223,7 @@
         <v>45267</v>
       </c>
       <c r="C879" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D879" t="inlineStr">
         <is>
@@ -56280,7 +56280,7 @@
         <v>46013</v>
       </c>
       <c r="C880" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D880" t="inlineStr">
         <is>
@@ -56337,7 +56337,7 @@
         <v>45439</v>
       </c>
       <c r="C881" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D881" t="inlineStr">
         <is>
@@ -56399,7 +56399,7 @@
         <v>46010.48998842593</v>
       </c>
       <c r="C882" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D882" t="inlineStr">
         <is>
@@ -56456,7 +56456,7 @@
         <v>46010.49005787037</v>
       </c>
       <c r="C883" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D883" t="inlineStr">
         <is>
@@ -56513,7 +56513,7 @@
         <v>44944</v>
       </c>
       <c r="C884" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D884" t="inlineStr">
         <is>
@@ -56570,7 +56570,7 @@
         <v>46052.4488425926</v>
       </c>
       <c r="C885" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D885" t="inlineStr">
         <is>
@@ -56627,7 +56627,7 @@
         <v>46055</v>
       </c>
       <c r="C886" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D886" t="inlineStr">
         <is>
@@ -56684,7 +56684,7 @@
         <v>46052</v>
       </c>
       <c r="C887" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D887" t="inlineStr">
         <is>
@@ -56741,7 +56741,7 @@
         <v>45037</v>
       </c>
       <c r="C888" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D888" t="inlineStr">
         <is>
@@ -56803,7 +56803,7 @@
         <v>45470</v>
       </c>
       <c r="C889" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D889" t="inlineStr">
         <is>
@@ -56860,7 +56860,7 @@
         <v>46010.24019675926</v>
       </c>
       <c r="C890" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D890" t="inlineStr">
         <is>
@@ -56917,7 +56917,7 @@
         <v>46010.27672453703</v>
       </c>
       <c r="C891" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D891" t="inlineStr">
         <is>
@@ -56974,7 +56974,7 @@
         <v>46010.23451388889</v>
       </c>
       <c r="C892" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D892" t="inlineStr">
         <is>
@@ -57031,7 +57031,7 @@
         <v>46010.3641087963</v>
       </c>
       <c r="C893" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D893" t="inlineStr">
         <is>
@@ -57088,7 +57088,7 @@
         <v>45908</v>
       </c>
       <c r="C894" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D894" t="inlineStr">
         <is>
@@ -57145,7 +57145,7 @@
         <v>45569.53054398148</v>
       </c>
       <c r="C895" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D895" t="inlineStr">
         <is>
@@ -57207,7 +57207,7 @@
         <v>45761.43072916667</v>
       </c>
       <c r="C896" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D896" t="inlineStr">
         <is>
@@ -57269,7 +57269,7 @@
         <v>45301</v>
       </c>
       <c r="C897" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D897" t="inlineStr">
         <is>
@@ -57326,7 +57326,7 @@
         <v>45078</v>
       </c>
       <c r="C898" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D898" t="inlineStr">
         <is>
@@ -57383,7 +57383,7 @@
         <v>46010.5324537037</v>
       </c>
       <c r="C899" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D899" t="inlineStr">
         <is>
@@ -57440,7 +57440,7 @@
         <v>45106</v>
       </c>
       <c r="C900" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D900" t="inlineStr">
         <is>
@@ -57497,7 +57497,7 @@
         <v>46030</v>
       </c>
       <c r="C901" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D901" t="inlineStr">
         <is>
@@ -57554,7 +57554,7 @@
         <v>45687.66449074074</v>
       </c>
       <c r="C902" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D902" t="inlineStr">
         <is>
@@ -57616,7 +57616,7 @@
         <v>46050</v>
       </c>
       <c r="C903" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D903" t="inlineStr">
         <is>
@@ -57673,7 +57673,7 @@
         <v>46014.31091435185</v>
       </c>
       <c r="C904" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D904" t="inlineStr">
         <is>
@@ -57730,7 +57730,7 @@
         <v>46056.40042824074</v>
       </c>
       <c r="C905" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D905" t="inlineStr">
         <is>
@@ -57787,7 +57787,7 @@
         <v>45065</v>
       </c>
       <c r="C906" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D906" t="inlineStr">
         <is>
@@ -57844,7 +57844,7 @@
         <v>45441</v>
       </c>
       <c r="C907" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D907" t="inlineStr">
         <is>
@@ -57901,7 +57901,7 @@
         <v>45561</v>
       </c>
       <c r="C908" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D908" t="inlineStr">
         <is>
@@ -57958,7 +57958,7 @@
         <v>45448.42561342593</v>
       </c>
       <c r="C909" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D909" t="inlineStr">
         <is>
@@ -58020,7 +58020,7 @@
         <v>46030</v>
       </c>
       <c r="C910" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D910" t="inlineStr">
         <is>
@@ -58077,7 +58077,7 @@
         <v>46049</v>
       </c>
       <c r="C911" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D911" t="inlineStr">
         <is>
@@ -58134,7 +58134,7 @@
         <v>45581.57825231482</v>
       </c>
       <c r="C912" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D912" t="inlineStr">
         <is>
@@ -58191,7 +58191,7 @@
         <v>46037</v>
       </c>
       <c r="C913" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D913" t="inlineStr">
         <is>
@@ -58248,7 +58248,7 @@
         <v>45803</v>
       </c>
       <c r="C914" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D914" t="inlineStr">
         <is>
@@ -58305,7 +58305,7 @@
         <v>46057.53539351852</v>
       </c>
       <c r="C915" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D915" t="inlineStr">
         <is>
@@ -58362,7 +58362,7 @@
         <v>46056.43702546296</v>
       </c>
       <c r="C916" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D916" t="inlineStr">
         <is>
@@ -58419,7 +58419,7 @@
         <v>45512</v>
       </c>
       <c r="C917" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D917" t="inlineStr">
         <is>
@@ -58476,7 +58476,7 @@
         <v>44594.92151620371</v>
       </c>
       <c r="C918" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D918" t="inlineStr">
         <is>
@@ -58533,7 +58533,7 @@
         <v>46059.34295138889</v>
       </c>
       <c r="C919" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D919" t="inlineStr">
         <is>
@@ -58590,7 +58590,7 @@
         <v>46059.36202546296</v>
       </c>
       <c r="C920" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D920" t="inlineStr">
         <is>
@@ -58647,7 +58647,7 @@
         <v>45007</v>
       </c>
       <c r="C921" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D921" t="inlineStr">
         <is>
@@ -58709,7 +58709,7 @@
         <v>46059.36795138889</v>
       </c>
       <c r="C922" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D922" t="inlineStr">
         <is>
@@ -58766,7 +58766,7 @@
         <v>45455</v>
       </c>
       <c r="C923" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D923" t="inlineStr">
         <is>
@@ -58823,7 +58823,7 @@
         <v>45030</v>
       </c>
       <c r="C924" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D924" t="inlineStr">
         <is>
@@ -58880,7 +58880,7 @@
         <v>46058.6363425926</v>
       </c>
       <c r="C925" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D925" t="inlineStr">
         <is>
@@ -58937,7 +58937,7 @@
         <v>44949.55421296296</v>
       </c>
       <c r="C926" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D926" t="inlineStr">
         <is>
@@ -58994,7 +58994,7 @@
         <v>45623</v>
       </c>
       <c r="C927" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D927" t="inlineStr">
         <is>
@@ -59051,7 +59051,7 @@
         <v>45174.45435185185</v>
       </c>
       <c r="C928" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D928" t="inlineStr">
         <is>
@@ -59113,7 +59113,7 @@
         <v>45572</v>
       </c>
       <c r="C929" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D929" t="inlineStr">
         <is>
@@ -59170,7 +59170,7 @@
         <v>45194.64578703704</v>
       </c>
       <c r="C930" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D930" t="inlineStr">
         <is>
@@ -59232,7 +59232,7 @@
         <v>44873</v>
       </c>
       <c r="C931" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D931" t="inlineStr">
         <is>
@@ -59289,7 +59289,7 @@
         <v>45581.41333333333</v>
       </c>
       <c r="C932" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D932" t="inlineStr">
         <is>
@@ -59346,7 +59346,7 @@
         <v>44382.3005787037</v>
       </c>
       <c r="C933" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D933" t="inlineStr">
         <is>
@@ -59408,7 +59408,7 @@
         <v>45470.44721064815</v>
       </c>
       <c r="C934" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D934" t="inlineStr">
         <is>
@@ -59465,7 +59465,7 @@
         <v>45252</v>
       </c>
       <c r="C935" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D935" t="inlineStr">
         <is>
@@ -59522,7 +59522,7 @@
         <v>45623</v>
       </c>
       <c r="C936" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D936" t="inlineStr">
         <is>
@@ -59579,7 +59579,7 @@
         <v>45481.50622685185</v>
       </c>
       <c r="C937" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D937" t="inlineStr">
         <is>
@@ -59636,7 +59636,7 @@
         <v>44326</v>
       </c>
       <c r="C938" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D938" t="inlineStr">
         <is>
@@ -59693,7 +59693,7 @@
         <v>45670.42223379629</v>
       </c>
       <c r="C939" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D939" t="inlineStr">
         <is>
@@ -59750,7 +59750,7 @@
         <v>45175</v>
       </c>
       <c r="C940" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D940" t="inlineStr">
         <is>
@@ -59812,7 +59812,7 @@
         <v>45078</v>
       </c>
       <c r="C941" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D941" t="inlineStr">
         <is>
@@ -59869,7 +59869,7 @@
         <v>45616</v>
       </c>
       <c r="C942" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D942" t="inlineStr">
         <is>
@@ -59926,7 +59926,7 @@
         <v>45041</v>
       </c>
       <c r="C943" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D943" t="inlineStr">
         <is>
@@ -59988,7 +59988,7 @@
         <v>45510.40539351852</v>
       </c>
       <c r="C944" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D944" t="inlineStr">
         <is>
@@ -60050,7 +60050,7 @@
         <v>45579.67520833333</v>
       </c>
       <c r="C945" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D945" t="inlineStr">
         <is>
@@ -60112,7 +60112,7 @@
         <v>45271</v>
       </c>
       <c r="C946" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D946" t="inlineStr">
         <is>
@@ -60169,7 +60169,7 @@
         <v>45744</v>
       </c>
       <c r="C947" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D947" t="inlineStr">
         <is>
@@ -60231,7 +60231,7 @@
         <v>45033</v>
       </c>
       <c r="C948" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D948" t="inlineStr">
         <is>
@@ -60293,7 +60293,7 @@
         <v>45505</v>
       </c>
       <c r="C949" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D949" t="inlineStr">
         <is>
@@ -60350,7 +60350,7 @@
         <v>45503</v>
       </c>
       <c r="C950" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D950" t="inlineStr">
         <is>
@@ -60412,7 +60412,7 @@
         <v>45385</v>
       </c>
       <c r="C951" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D951" t="inlineStr">
         <is>
@@ -60469,7 +60469,7 @@
         <v>45197</v>
       </c>
       <c r="C952" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D952" t="inlineStr">
         <is>
@@ -60531,7 +60531,7 @@
         <v>44481.32383101852</v>
       </c>
       <c r="C953" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D953" t="inlineStr">
         <is>
@@ -60593,7 +60593,7 @@
         <v>45208.89429398148</v>
       </c>
       <c r="C954" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D954" t="inlineStr">
         <is>
@@ -60650,7 +60650,7 @@
         <v>45455</v>
       </c>
       <c r="C955" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D955" t="inlineStr">
         <is>
@@ -60707,7 +60707,7 @@
         <v>45113</v>
       </c>
       <c r="C956" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D956" t="inlineStr">
         <is>
@@ -60764,7 +60764,7 @@
         <v>45572.73465277778</v>
       </c>
       <c r="C957" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D957" t="inlineStr">
         <is>
@@ -60821,7 +60821,7 @@
         <v>45747.36483796296</v>
       </c>
       <c r="C958" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D958" t="inlineStr">
         <is>
@@ -60878,7 +60878,7 @@
         <v>45747.40652777778</v>
       </c>
       <c r="C959" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D959" t="inlineStr">
         <is>
@@ -60935,7 +60935,7 @@
         <v>45244</v>
       </c>
       <c r="C960" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D960" t="inlineStr">
         <is>
@@ -60992,7 +60992,7 @@
         <v>45616</v>
       </c>
       <c r="C961" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D961" t="inlineStr">
         <is>
@@ -61049,7 +61049,7 @@
         <v>45597.3706712963</v>
       </c>
       <c r="C962" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D962" t="inlineStr">
         <is>
@@ -61111,7 +61111,7 @@
         <v>45538</v>
       </c>
       <c r="C963" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D963" t="inlineStr">
         <is>
@@ -61173,7 +61173,7 @@
         <v>45530</v>
       </c>
       <c r="C964" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D964" t="inlineStr">
         <is>
@@ -61235,7 +61235,7 @@
         <v>45309</v>
       </c>
       <c r="C965" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D965" t="inlineStr">
         <is>
@@ -61292,7 +61292,7 @@
         <v>45469.36628472222</v>
       </c>
       <c r="C966" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D966" t="inlineStr">
         <is>
@@ -61349,7 +61349,7 @@
         <v>45205</v>
       </c>
       <c r="C967" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D967" t="inlineStr">
         <is>
@@ -61406,7 +61406,7 @@
         <v>45089.49538194444</v>
       </c>
       <c r="C968" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D968" t="inlineStr">
         <is>
@@ -61463,7 +61463,7 @@
         <v>45249.95226851852</v>
       </c>
       <c r="C969" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D969" t="inlineStr">
         <is>
@@ -61520,7 +61520,7 @@
         <v>45642.63862268518</v>
       </c>
       <c r="C970" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D970" t="inlineStr">
         <is>
@@ -61577,7 +61577,7 @@
         <v>45250.48440972222</v>
       </c>
       <c r="C971" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D971" t="inlineStr">
         <is>
@@ -61634,7 +61634,7 @@
         <v>45593.42652777778</v>
       </c>
       <c r="C972" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D972" t="inlineStr">
         <is>
@@ -61696,7 +61696,7 @@
         <v>45744</v>
       </c>
       <c r="C973" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D973" t="inlineStr">
         <is>
@@ -61758,7 +61758,7 @@
         <v>44939</v>
       </c>
       <c r="C974" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D974" t="inlineStr">
         <is>
@@ -61815,7 +61815,7 @@
         <v>45272</v>
       </c>
       <c r="C975" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D975" t="inlineStr">
         <is>
@@ -61872,7 +61872,7 @@
         <v>45708</v>
       </c>
       <c r="C976" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D976" t="inlineStr">
         <is>
@@ -61934,7 +61934,7 @@
         <v>45735.39761574074</v>
       </c>
       <c r="C977" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D977" t="inlineStr">
         <is>
@@ -61991,7 +61991,7 @@
         <v>45735</v>
       </c>
       <c r="C978" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D978" t="inlineStr">
         <is>
@@ -62048,7 +62048,7 @@
         <v>45579.64884259259</v>
       </c>
       <c r="C979" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D979" t="inlineStr">
         <is>
@@ -62105,7 +62105,7 @@
         <v>45215</v>
       </c>
       <c r="C980" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D980" t="inlineStr">
         <is>
@@ -62162,7 +62162,7 @@
         <v>45714</v>
       </c>
       <c r="C981" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D981" t="inlineStr">
         <is>
@@ -62224,7 +62224,7 @@
         <v>45426</v>
       </c>
       <c r="C982" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D982" t="inlineStr">
         <is>
@@ -62281,7 +62281,7 @@
         <v>45392</v>
       </c>
       <c r="C983" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D983" t="inlineStr">
         <is>
@@ -62338,7 +62338,7 @@
         <v>45708</v>
       </c>
       <c r="C984" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D984" t="inlineStr">
         <is>
@@ -62400,7 +62400,7 @@
         <v>45531</v>
       </c>
       <c r="C985" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D985" t="inlineStr">
         <is>
@@ -62457,7 +62457,7 @@
         <v>45576</v>
       </c>
       <c r="C986" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D986" t="inlineStr">
         <is>
@@ -62514,7 +62514,7 @@
         <v>44379</v>
       </c>
       <c r="C987" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D987" t="inlineStr">
         <is>
@@ -62571,7 +62571,7 @@
         <v>45199.87405092592</v>
       </c>
       <c r="C988" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D988" t="inlineStr">
         <is>
@@ -62628,7 +62628,7 @@
         <v>45580.37296296296</v>
       </c>
       <c r="C989" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D989" t="inlineStr">
         <is>
@@ -62690,7 +62690,7 @@
         <v>45629</v>
       </c>
       <c r="C990" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D990" t="inlineStr">
         <is>
@@ -62747,7 +62747,7 @@
         <v>44873.43465277777</v>
       </c>
       <c r="C991" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D991" t="inlineStr">
         <is>
@@ -62804,7 +62804,7 @@
         <v>45230</v>
       </c>
       <c r="C992" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D992" t="inlineStr">
         <is>
@@ -62861,7 +62861,7 @@
         <v>45755.34568287037</v>
       </c>
       <c r="C993" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D993" t="inlineStr">
         <is>
@@ -62918,7 +62918,7 @@
         <v>45764.44584490741</v>
       </c>
       <c r="C994" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D994" t="inlineStr">
         <is>
@@ -62980,7 +62980,7 @@
         <v>45077.66282407408</v>
       </c>
       <c r="C995" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D995" t="inlineStr">
         <is>
@@ -63037,7 +63037,7 @@
         <v>45013</v>
       </c>
       <c r="C996" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D996" t="inlineStr">
         <is>
@@ -63094,7 +63094,7 @@
         <v>45345</v>
       </c>
       <c r="C997" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D997" t="inlineStr">
         <is>
@@ -63151,7 +63151,7 @@
         <v>45107</v>
       </c>
       <c r="C998" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D998" t="inlineStr">
         <is>
@@ -63208,7 +63208,7 @@
         <v>44805.5507175926</v>
       </c>
       <c r="C999" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D999" t="inlineStr">
         <is>
@@ -63270,7 +63270,7 @@
         <v>45539</v>
       </c>
       <c r="C1000" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1000" t="inlineStr">
         <is>
@@ -63327,7 +63327,7 @@
         <v>44427</v>
       </c>
       <c r="C1001" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1001" t="inlineStr">
         <is>
@@ -63384,7 +63384,7 @@
         <v>44378.49517361111</v>
       </c>
       <c r="C1002" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1002" t="inlineStr">
         <is>
@@ -63441,7 +63441,7 @@
         <v>45225.53422453703</v>
       </c>
       <c r="C1003" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1003" t="inlineStr">
         <is>
@@ -63498,7 +63498,7 @@
         <v>45576.47199074074</v>
       </c>
       <c r="C1004" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1004" t="inlineStr">
         <is>
@@ -63560,7 +63560,7 @@
         <v>45167</v>
       </c>
       <c r="C1005" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1005" t="inlineStr">
         <is>
@@ -63622,7 +63622,7 @@
         <v>44274</v>
       </c>
       <c r="C1006" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1006" t="inlineStr">
         <is>
@@ -63679,7 +63679,7 @@
         <v>45617.58597222222</v>
       </c>
       <c r="C1007" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1007" t="inlineStr">
         <is>
@@ -63741,7 +63741,7 @@
         <v>45244</v>
       </c>
       <c r="C1008" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1008" t="inlineStr">
         <is>
@@ -63798,7 +63798,7 @@
         <v>45141</v>
       </c>
       <c r="C1009" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1009" t="inlineStr">
         <is>
@@ -63860,7 +63860,7 @@
         <v>45016</v>
       </c>
       <c r="C1010" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1010" t="inlineStr">
         <is>
@@ -63922,7 +63922,7 @@
         <v>45471.56107638889</v>
       </c>
       <c r="C1011" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1011" t="inlineStr">
         <is>
@@ -63984,7 +63984,7 @@
         <v>45478</v>
       </c>
       <c r="C1012" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1012" t="inlineStr">
         <is>
@@ -64041,7 +64041,7 @@
         <v>45706.57314814815</v>
       </c>
       <c r="C1013" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
@@ -64098,7 +64098,7 @@
         <v>45714.35774305555</v>
       </c>
       <c r="C1014" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1014" t="inlineStr">
         <is>
@@ -64155,7 +64155,7 @@
         <v>45531.41466435185</v>
       </c>
       <c r="C1015" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1015" t="inlineStr">
         <is>
@@ -64212,7 +64212,7 @@
         <v>45316</v>
       </c>
       <c r="C1016" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1016" t="inlineStr">
         <is>
@@ -64269,7 +64269,7 @@
         <v>45574.70622685185</v>
       </c>
       <c r="C1017" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
@@ -64331,7 +64331,7 @@
         <v>45009</v>
       </c>
       <c r="C1018" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1018" t="inlineStr">
         <is>
@@ -64388,7 +64388,7 @@
         <v>45033</v>
       </c>
       <c r="C1019" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1019" t="inlineStr">
         <is>
@@ -64450,7 +64450,7 @@
         <v>45047</v>
       </c>
       <c r="C1020" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1020" t="inlineStr">
         <is>
@@ -64507,7 +64507,7 @@
         <v>45714</v>
       </c>
       <c r="C1021" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1021" t="inlineStr">
         <is>
@@ -64569,7 +64569,7 @@
         <v>45099</v>
       </c>
       <c r="C1022" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1022" t="inlineStr">
         <is>
@@ -64631,7 +64631,7 @@
         <v>45111</v>
       </c>
       <c r="C1023" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1023" t="inlineStr">
         <is>
@@ -64688,7 +64688,7 @@
         <v>45511</v>
       </c>
       <c r="C1024" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1024" t="inlineStr">
         <is>
@@ -64745,7 +64745,7 @@
         <v>45538.62810185185</v>
       </c>
       <c r="C1025" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1025" t="inlineStr">
         <is>
@@ -64807,7 +64807,7 @@
         <v>45594</v>
       </c>
       <c r="C1026" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1026" t="inlineStr">
         <is>
@@ -64864,7 +64864,7 @@
         <v>45706.39457175926</v>
       </c>
       <c r="C1027" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1027" t="inlineStr">
         <is>
@@ -64921,7 +64921,7 @@
         <v>45706.39914351852</v>
       </c>
       <c r="C1028" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1028" t="inlineStr">
         <is>
@@ -64978,7 +64978,7 @@
         <v>45737.5315625</v>
       </c>
       <c r="C1029" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1029" t="inlineStr">
         <is>
@@ -65035,7 +65035,7 @@
         <v>45366</v>
       </c>
       <c r="C1030" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1030" t="inlineStr">
         <is>
@@ -65092,7 +65092,7 @@
         <v>45440.42893518518</v>
       </c>
       <c r="C1031" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1031" t="inlineStr">
         <is>
@@ -65149,7 +65149,7 @@
         <v>45530</v>
       </c>
       <c r="C1032" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1032" t="inlineStr">
         <is>
@@ -65211,7 +65211,7 @@
         <v>45516.54195601852</v>
       </c>
       <c r="C1033" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
@@ -65268,7 +65268,7 @@
         <v>45544</v>
       </c>
       <c r="C1034" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1034" t="inlineStr">
         <is>
@@ -65325,7 +65325,7 @@
         <v>45761.56107638889</v>
       </c>
       <c r="C1035" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1035" t="inlineStr">
         <is>
@@ -65387,7 +65387,7 @@
         <v>45040</v>
       </c>
       <c r="C1036" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1036" t="inlineStr">
         <is>
@@ -65449,7 +65449,7 @@
         <v>45362.46013888889</v>
       </c>
       <c r="C1037" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1037" t="inlineStr">
         <is>
@@ -65506,7 +65506,7 @@
         <v>45048</v>
       </c>
       <c r="C1038" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1038" t="inlineStr">
         <is>
@@ -65563,7 +65563,7 @@
         <v>45735</v>
       </c>
       <c r="C1039" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1039" t="inlineStr">
         <is>
@@ -65620,7 +65620,7 @@
         <v>45755.42978009259</v>
       </c>
       <c r="C1040" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1040" t="inlineStr">
         <is>
@@ -65682,7 +65682,7 @@
         <v>45572</v>
       </c>
       <c r="C1041" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
@@ -65739,7 +65739,7 @@
         <v>45516.5365625</v>
       </c>
       <c r="C1042" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1042" t="inlineStr">
         <is>
@@ -65796,7 +65796,7 @@
         <v>45514.37979166667</v>
       </c>
       <c r="C1043" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1043" t="inlineStr">
         <is>
@@ -65858,7 +65858,7 @@
         <v>45216</v>
       </c>
       <c r="C1044" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1044" t="inlineStr">
         <is>
@@ -65920,7 +65920,7 @@
         <v>45217</v>
       </c>
       <c r="C1045" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1045" t="inlineStr">
         <is>
@@ -65982,7 +65982,7 @@
         <v>45217</v>
       </c>
       <c r="C1046" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1046" t="inlineStr">
         <is>
@@ -66044,7 +66044,7 @@
         <v>45615</v>
       </c>
       <c r="C1047" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1047" t="inlineStr">
         <is>
@@ -66101,7 +66101,7 @@
         <v>44550</v>
       </c>
       <c r="C1048" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1048" t="inlineStr">
         <is>
@@ -66158,7 +66158,7 @@
         <v>45006</v>
       </c>
       <c r="C1049" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1049" t="inlineStr">
         <is>
@@ -66220,7 +66220,7 @@
         <v>45168</v>
       </c>
       <c r="C1050" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1050" t="inlineStr">
         <is>
@@ -66277,7 +66277,7 @@
         <v>45436</v>
       </c>
       <c r="C1051" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1051" t="inlineStr">
         <is>
@@ -66334,7 +66334,7 @@
         <v>45561.69625</v>
       </c>
       <c r="C1052" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1052" t="inlineStr">
         <is>
@@ -66391,7 +66391,7 @@
         <v>44802.31871527778</v>
       </c>
       <c r="C1053" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
@@ -66448,7 +66448,7 @@
         <v>45154</v>
       </c>
       <c r="C1054" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1054" t="inlineStr">
         <is>
@@ -66505,7 +66505,7 @@
         <v>45261.66517361111</v>
       </c>
       <c r="C1055" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1055" t="inlineStr">
         <is>
@@ -66562,7 +66562,7 @@
         <v>45484.92354166666</v>
       </c>
       <c r="C1056" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1056" t="inlineStr">
         <is>
@@ -66619,7 +66619,7 @@
         <v>45427.93501157407</v>
       </c>
       <c r="C1057" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1057" t="inlineStr">
         <is>
@@ -66676,7 +66676,7 @@
         <v>44410</v>
       </c>
       <c r="C1058" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1058" t="inlineStr">
         <is>
@@ -66738,7 +66738,7 @@
         <v>45741.41429398148</v>
       </c>
       <c r="C1059" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
@@ -66795,7 +66795,7 @@
         <v>44715.33833333333</v>
       </c>
       <c r="C1060" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
@@ -66852,7 +66852,7 @@
         <v>45260</v>
       </c>
       <c r="C1061" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1061" t="inlineStr">
         <is>
@@ -66909,7 +66909,7 @@
         <v>45755.35048611111</v>
       </c>
       <c r="C1062" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1062" t="inlineStr">
         <is>
@@ -66966,7 +66966,7 @@
         <v>45616</v>
       </c>
       <c r="C1063" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1063" t="inlineStr">
         <is>
@@ -67023,7 +67023,7 @@
         <v>45636.57275462963</v>
       </c>
       <c r="C1064" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1064" t="inlineStr">
         <is>
@@ -67080,7 +67080,7 @@
         <v>45033.92614583333</v>
       </c>
       <c r="C1065" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1065" t="inlineStr">
         <is>
@@ -67137,7 +67137,7 @@
         <v>45646.58855324074</v>
       </c>
       <c r="C1066" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1066" t="inlineStr">
         <is>
@@ -67194,7 +67194,7 @@
         <v>44931</v>
       </c>
       <c r="C1067" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1067" t="inlineStr">
         <is>
@@ -67251,7 +67251,7 @@
         <v>44937</v>
       </c>
       <c r="C1068" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1068" t="inlineStr">
         <is>
@@ -67308,7 +67308,7 @@
         <v>44480</v>
       </c>
       <c r="C1069" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1069" t="inlineStr">
         <is>
@@ -67365,7 +67365,7 @@
         <v>45530.52100694444</v>
       </c>
       <c r="C1070" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1070" t="inlineStr">
         <is>
@@ -67422,7 +67422,7 @@
         <v>45635</v>
       </c>
       <c r="C1071" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1071" t="inlineStr">
         <is>
@@ -67479,7 +67479,7 @@
         <v>45777.46688657408</v>
       </c>
       <c r="C1072" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1072" t="inlineStr">
         <is>
@@ -67536,7 +67536,7 @@
         <v>45747.50991898148</v>
       </c>
       <c r="C1073" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1073" t="inlineStr">
         <is>
@@ -67593,7 +67593,7 @@
         <v>45636.4705787037</v>
       </c>
       <c r="C1074" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1074" t="inlineStr">
         <is>
@@ -67650,7 +67650,7 @@
         <v>45779.52741898148</v>
       </c>
       <c r="C1075" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1075" t="inlineStr">
         <is>
@@ -67712,7 +67712,7 @@
         <v>44432</v>
       </c>
       <c r="C1076" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1076" t="inlineStr">
         <is>
@@ -67769,7 +67769,7 @@
         <v>44305</v>
       </c>
       <c r="C1077" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1077" t="inlineStr">
         <is>
@@ -67831,7 +67831,7 @@
         <v>45783.68131944445</v>
       </c>
       <c r="C1078" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1078" t="inlineStr">
         <is>
@@ -67893,7 +67893,7 @@
         <v>45783.68863425926</v>
       </c>
       <c r="C1079" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1079" t="inlineStr">
         <is>
@@ -67955,7 +67955,7 @@
         <v>45783.67894675926</v>
       </c>
       <c r="C1080" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1080" t="inlineStr">
         <is>
@@ -68012,7 +68012,7 @@
         <v>45783.39127314815</v>
       </c>
       <c r="C1081" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1081" t="inlineStr">
         <is>
@@ -68069,7 +68069,7 @@
         <v>45783.39449074074</v>
       </c>
       <c r="C1082" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1082" t="inlineStr">
         <is>
@@ -68126,7 +68126,7 @@
         <v>45749</v>
       </c>
       <c r="C1083" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1083" t="inlineStr">
         <is>
@@ -68183,7 +68183,7 @@
         <v>45784</v>
       </c>
       <c r="C1084" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1084" t="inlineStr">
         <is>
@@ -68240,7 +68240,7 @@
         <v>45785.55422453704</v>
       </c>
       <c r="C1085" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1085" t="inlineStr">
         <is>
@@ -68297,7 +68297,7 @@
         <v>45785.55462962963</v>
       </c>
       <c r="C1086" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
@@ -68354,7 +68354,7 @@
         <v>45785.58844907407</v>
       </c>
       <c r="C1087" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1087" t="inlineStr">
         <is>
@@ -68411,7 +68411,7 @@
         <v>45784</v>
       </c>
       <c r="C1088" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1088" t="inlineStr">
         <is>
@@ -68468,7 +68468,7 @@
         <v>45789.47297453704</v>
       </c>
       <c r="C1089" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1089" t="inlineStr">
         <is>
@@ -68525,7 +68525,7 @@
         <v>45635</v>
       </c>
       <c r="C1090" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1090" t="inlineStr">
         <is>
@@ -68582,7 +68582,7 @@
         <v>45748</v>
       </c>
       <c r="C1091" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1091" t="inlineStr">
         <is>
@@ -68639,7 +68639,7 @@
         <v>45484.9237037037</v>
       </c>
       <c r="C1092" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1092" t="inlineStr">
         <is>
@@ -68696,7 +68696,7 @@
         <v>45790.34162037037</v>
       </c>
       <c r="C1093" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1093" t="inlineStr">
         <is>
@@ -68758,7 +68758,7 @@
         <v>44308</v>
       </c>
       <c r="C1094" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1094" t="inlineStr">
         <is>
@@ -68815,7 +68815,7 @@
         <v>45791.5622337963</v>
       </c>
       <c r="C1095" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1095" t="inlineStr">
         <is>
@@ -68877,7 +68877,7 @@
         <v>45790</v>
       </c>
       <c r="C1096" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1096" t="inlineStr">
         <is>
@@ -68934,7 +68934,7 @@
         <v>45789.49047453704</v>
       </c>
       <c r="C1097" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1097" t="inlineStr">
         <is>
@@ -68991,7 +68991,7 @@
         <v>45792.4493287037</v>
       </c>
       <c r="C1098" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1098" t="inlineStr">
         <is>
@@ -69048,7 +69048,7 @@
         <v>45792.58780092592</v>
       </c>
       <c r="C1099" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1099" t="inlineStr">
         <is>
@@ -69105,7 +69105,7 @@
         <v>45792.3788425926</v>
       </c>
       <c r="C1100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1100" t="inlineStr">
         <is>
@@ -69162,7 +69162,7 @@
         <v>45792</v>
       </c>
       <c r="C1101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1101" t="inlineStr">
         <is>
@@ -69219,7 +69219,7 @@
         <v>45792.48252314814</v>
       </c>
       <c r="C1102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1102" t="inlineStr">
         <is>
@@ -69281,7 +69281,7 @@
         <v>45488</v>
       </c>
       <c r="C1103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1103" t="inlineStr">
         <is>
@@ -69338,7 +69338,7 @@
         <v>45516.57533564815</v>
       </c>
       <c r="C1104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1104" t="inlineStr">
         <is>
@@ -69395,7 +69395,7 @@
         <v>45632.57494212963</v>
       </c>
       <c r="C1105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D1105" t="inlineStr">
         <is>
